--- a/003.xlsx
+++ b/003.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangpeng/Documents/test/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangpeng/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="445">
   <si>
     <t>知识树id</t>
   </si>
@@ -1072,10 +1072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017-2018学年浙江省宁波市八年级（下）期中数学试卷（解析版）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浙江省宁波市鄞州区七校2017-2018学年八年级下学期期中考试数学试题（解析版）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1472,6 +1468,112 @@
   </si>
   <si>
     <t>解直角三角形的实际应用</t>
+  </si>
+  <si>
+    <t>知识解读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、实际问题与一元二次方程中等，学生得分率较高
+2、选择和填空题中以增长率问题为主，解答题会以增长率和利润问题为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、注意增长率问题、握手问题利润问题（一增一减）的应用
+2、注意题目中等量关系的分析，注意不同类型题目的切入点分析与总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、平均数、中位数、众数的综合比较简单，学生得分率高
+2、选择和填空题以计算为主，简答题以计算和决策分析为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、注意平均数、中位数、众数的定义与计算的应用
+2、注意常见题型的练习，保证的满分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、二次根式的混合运算比较简单，学生得分率高
+2、选择、填空、简答均以计算为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、注意二次根式的性质化简的应用
+2、注意二次根式加减乘除法则的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、一元二次方程的解比较简单，学生得分率较高
+2、选择和填空中以计算为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、注意强化逢解必代入的思想
+2、注意解一元二次方程得应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、因式分解解一元二次方程难度中等，学生得分率较高
+2、选择、填空和简答题均以计算为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、注意因式分解的复习与应用
+2、注意十字相乘法的讲解与应用，注意让学生选择合适、简单快捷的方法解方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、解一元二次方程难度中等，学生得分率较高
+2、选择、填空和简答题均以计算为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、注意配方法、公式法、因式分解法的应用
+2、注意因式分解的应用，注意让学生选择合适、简单快捷的方法解方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、注意从边、角、对角线三个角度分析平行四边形的性质
+2、注意角平分线与平行结合出等腰的组合应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、平行四边形的性质比较简单，学生得分率较高
+2、选择和填空题以角度、边长计算为主，简答题以求解角度为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、矩形的性质与判定难度中等，学生得分率较高
+2、选择和填空题以角度、边长计算为主，解答题以角度、边长证明为主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、平行四边形的性质与判定难度中等，学生得分率较高
+2、选择和填空题以角度、边长计算为主，解答题以角度、边长证明为主，有时会考查动点问题，难度较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、1、注意从边、角、对角线三个角度分析平行四边形的性质与判定
+2、注意动点问题中长度的表示，注意根据题目找出等量关系解决问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、注意勾股定理在矩形中的应用
+2、注意折叠问题、边角之间的等量的应用，注意方程思想在几何中的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分值94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分值 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1601,7 +1703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1630,6 +1732,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1642,17 +1748,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1968,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CZ81"/>
+  <dimension ref="A1:DC80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CP25" sqref="A25:XFD25"/>
+      <selection activeCell="DA82" sqref="DA82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2046,216 +2156,227 @@
     <col min="93" max="93" width="8.1640625" style="17" customWidth="1"/>
     <col min="94" max="94" width="9.1640625" style="17" customWidth="1"/>
     <col min="95" max="95" width="8.83203125" style="17" customWidth="1"/>
-    <col min="96" max="96" width="7.1640625" style="17" customWidth="1"/>
-    <col min="97" max="97" width="7.5" style="17" customWidth="1"/>
-    <col min="98" max="98" width="8.1640625" style="17" customWidth="1"/>
-    <col min="99" max="100" width="8.83203125" style="17" customWidth="1"/>
-    <col min="101" max="101" width="24.83203125" style="18"/>
+    <col min="96" max="97" width="7.1640625" style="17" customWidth="1"/>
+    <col min="98" max="98" width="7.5" style="17" customWidth="1"/>
+    <col min="99" max="99" width="8.1640625" style="17" customWidth="1"/>
+    <col min="100" max="101" width="8.83203125" style="17" customWidth="1"/>
+    <col min="102" max="102" width="11.5" style="18" customWidth="1"/>
+    <col min="103" max="103" width="11.1640625" customWidth="1"/>
+    <col min="104" max="104" width="10.83203125" customWidth="1"/>
+    <col min="105" max="105" width="10.1640625" customWidth="1"/>
+    <col min="106" max="107" width="24.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20" t="s">
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20" t="s">
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20" t="s">
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20" t="s">
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20" t="s">
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20" t="s">
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="24" t="s">
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24" t="s">
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24" t="s">
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24" t="s">
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="23" t="s">
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="23"/>
-      <c r="BR1" s="23" t="s">
+      <c r="BO1" s="27"/>
+      <c r="BP1" s="27"/>
+      <c r="BQ1" s="27"/>
+      <c r="BR1" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="BS1" s="23"/>
-      <c r="BT1" s="23"/>
-      <c r="BU1" s="23"/>
-      <c r="BV1" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="BW1" s="23"/>
-      <c r="BX1" s="23"/>
-      <c r="BY1" s="23"/>
-      <c r="BZ1" s="23" t="s">
+      <c r="BS1" s="27"/>
+      <c r="BT1" s="27"/>
+      <c r="BU1" s="27"/>
+      <c r="BV1" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="BW1" s="27"/>
+      <c r="BX1" s="27"/>
+      <c r="BY1" s="27"/>
+      <c r="BZ1" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="CA1" s="27"/>
+      <c r="CB1" s="27"/>
+      <c r="CC1" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="CA1" s="23"/>
-      <c r="CB1" s="23"/>
-      <c r="CC1" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="CD1" s="23"/>
-      <c r="CE1" s="23"/>
-      <c r="CF1" s="23"/>
-      <c r="CG1" s="27" t="s">
+      <c r="CD1" s="27"/>
+      <c r="CE1" s="27"/>
+      <c r="CF1" s="27"/>
+      <c r="CG1" s="28">
+        <v>0</v>
+      </c>
+      <c r="CH1" s="28"/>
+      <c r="CI1" s="28"/>
+      <c r="CJ1" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="CH1" s="27"/>
-      <c r="CI1" s="27"/>
-      <c r="CJ1" s="27" t="s">
+      <c r="CK1" s="28"/>
+      <c r="CL1" s="28"/>
+      <c r="CM1" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="CK1" s="27"/>
-      <c r="CL1" s="27"/>
-      <c r="CM1" s="27" t="s">
+      <c r="CN1" s="28"/>
+      <c r="CO1" s="28"/>
+      <c r="CP1" s="28"/>
+      <c r="CQ1" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="CR1" s="28"/>
+      <c r="CS1" s="28"/>
+      <c r="CT1" s="28"/>
+      <c r="CU1" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="CN1" s="27"/>
-      <c r="CO1" s="27"/>
-      <c r="CP1" s="27"/>
-      <c r="CQ1" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="CR1" s="27"/>
-      <c r="CS1" s="27"/>
-      <c r="CT1" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="CU1" s="27"/>
       <c r="CV1" s="28"/>
-      <c r="CW1" s="25" t="s">
+      <c r="CW1" s="34"/>
+      <c r="CX1" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="CY1" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="CX1" s="25" t="s">
+      <c r="CZ1" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="CY1" s="25" t="s">
+      <c r="DA1" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="CZ1" s="25" t="s">
-        <v>385</v>
+      <c r="DB1" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="DC1" s="30" t="s">
+        <v>424</v>
       </c>
     </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="1" t="s">
         <v>199</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>200</v>
@@ -2264,10 +2385,10 @@
         <v>199</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>200</v>
@@ -2276,10 +2397,10 @@
         <v>225</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>226</v>
@@ -2288,10 +2409,10 @@
         <v>199</v>
       </c>
       <c r="X2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>200</v>
@@ -2300,10 +2421,10 @@
         <v>199</v>
       </c>
       <c r="AB2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>200</v>
@@ -2312,10 +2433,10 @@
         <v>199</v>
       </c>
       <c r="AF2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>200</v>
@@ -2324,10 +2445,10 @@
         <v>199</v>
       </c>
       <c r="AJ2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>200</v>
@@ -2336,10 +2457,10 @@
         <v>199</v>
       </c>
       <c r="AN2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AO2" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>200</v>
@@ -2348,10 +2469,10 @@
         <v>199</v>
       </c>
       <c r="AR2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>200</v>
@@ -2360,10 +2481,10 @@
         <v>199</v>
       </c>
       <c r="AV2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>200</v>
@@ -2372,7 +2493,7 @@
         <v>199</v>
       </c>
       <c r="AZ2" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BA2" s="8" t="s">
         <v>200</v>
@@ -2381,7 +2502,7 @@
         <v>199</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="BD2" s="8" t="s">
         <v>200</v>
@@ -2390,7 +2511,7 @@
         <v>225</v>
       </c>
       <c r="BF2" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BG2" s="8" t="s">
         <v>226</v>
@@ -2399,7 +2520,7 @@
         <v>199</v>
       </c>
       <c r="BI2" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BJ2" s="8" t="s">
         <v>200</v>
@@ -2408,7 +2529,7 @@
         <v>199</v>
       </c>
       <c r="BL2" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BM2" s="8" t="s">
         <v>200</v>
@@ -2417,10 +2538,10 @@
         <v>199</v>
       </c>
       <c r="BO2" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BP2" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BQ2" s="12" t="s">
         <v>200</v>
@@ -2429,22 +2550,22 @@
         <v>199</v>
       </c>
       <c r="BS2" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BT2" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BU2" s="12" t="s">
         <v>200</v>
       </c>
       <c r="BV2" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="BW2" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BX2" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BY2" s="12" t="s">
         <v>226</v>
@@ -2453,7 +2574,7 @@
         <v>199</v>
       </c>
       <c r="CA2" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CB2" s="12" t="s">
         <v>200</v>
@@ -2462,10 +2583,10 @@
         <v>199</v>
       </c>
       <c r="CD2" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CE2" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CF2" s="12" t="s">
         <v>200</v>
@@ -2474,7 +2595,7 @@
         <v>199</v>
       </c>
       <c r="CH2" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CI2" s="15" t="s">
         <v>200</v>
@@ -2483,7 +2604,7 @@
         <v>199</v>
       </c>
       <c r="CK2" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CL2" s="15" t="s">
         <v>200</v>
@@ -2492,10 +2613,10 @@
         <v>225</v>
       </c>
       <c r="CN2" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CO2" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="CP2" s="15" t="s">
         <v>226</v>
@@ -2504,26 +2625,31 @@
         <v>199</v>
       </c>
       <c r="CR2" s="15" t="s">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="CS2" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="CT2" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="CT2" s="15" t="s">
+      <c r="CU2" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="CU2" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="CV2" s="19" t="s">
+      <c r="CV2" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="CW2" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="CW2" s="26"/>
-      <c r="CX2" s="26"/>
-      <c r="CY2" s="26"/>
-      <c r="CZ2" s="26"/>
+      <c r="CX2" s="33"/>
+      <c r="CY2" s="33"/>
+      <c r="CZ2" s="33"/>
+      <c r="DA2" s="33"/>
+      <c r="DB2" s="31"/>
+      <c r="DC2" s="31"/>
     </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2699,7 +2825,9 @@
       </c>
       <c r="CF3" s="12"/>
       <c r="CG3" s="15"/>
-      <c r="CH3" s="15"/>
+      <c r="CH3" s="15">
+        <v>0</v>
+      </c>
       <c r="CI3" s="15"/>
       <c r="CJ3" s="15"/>
       <c r="CK3" s="15">
@@ -2717,30 +2845,34 @@
       <c r="CR3" s="15">
         <v>0</v>
       </c>
-      <c r="CS3" s="15"/>
+      <c r="CS3" s="15">
+        <f>CR3/94*100</f>
+        <v>0</v>
+      </c>
       <c r="CT3" s="15"/>
-      <c r="CU3" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="19"/>
-      <c r="CW3" s="7">
+      <c r="CU3" s="15"/>
+      <c r="CV3" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="19"/>
+      <c r="CX3" s="7">
         <f>IFERROR(AVERAGE(M3,Q3,U3,Y3,AC3,AG3,AK3,AO3,AS3,AW3),0)</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="CX3">
+      <c r="CY3">
         <f>IFERROR(AVERAGE(AZ3,BC3,BF3,BI3,BL3),0)</f>
         <v>0.6</v>
-      </c>
-      <c r="CY3">
-        <f>IFERROR(AVERAGE(BP3,BT3,BX3,CA3,CE3),0)</f>
-        <v>0.5</v>
       </c>
       <c r="CZ3">
         <f>IFERROR(AVERAGE(BP3,BT3,BX3,CA3,CE3),0)</f>
         <v>0.5</v>
       </c>
+      <c r="DA3">
+        <f>IFERROR(AVERAGE(CH3,CK3,CO3,CS3,CV3),0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3003,7 +3135,7 @@
         <v>207</v>
       </c>
       <c r="CJ4" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="CK4" s="15">
         <v>5</v>
@@ -3030,32 +3162,36 @@
       <c r="CR4" s="15">
         <v>2</v>
       </c>
-      <c r="CS4" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT4" s="15"/>
-      <c r="CU4" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="19"/>
-      <c r="CW4" s="7">
-        <f t="shared" ref="CW4:CW67" si="15">IFERROR(AVERAGE(M4,Q4,U4,Y4,AC4,AG4,AK4,AO4,AS4,AW4),0)</f>
+      <c r="CS4" s="15">
+        <f t="shared" ref="CS4:CS67" si="15">CR4/94*100</f>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="CT4" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU4" s="15"/>
+      <c r="CV4" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="19"/>
+      <c r="CX4" s="7">
+        <f t="shared" ref="CX4:CX67" si="16">IFERROR(AVERAGE(M4,Q4,U4,Y4,AC4,AG4,AK4,AO4,AS4,AW4),0)</f>
         <v>2.916666666666667</v>
       </c>
-      <c r="CX4">
-        <f t="shared" ref="CX4:CX67" si="16">IFERROR(AVERAGE(AZ4,BC4,BF4,BI4,BL4),0)</f>
+      <c r="CY4">
+        <f t="shared" ref="CY4:CY67" si="17">IFERROR(AVERAGE(AZ4,BC4,BF4,BI4,BL4),0)</f>
         <v>1.6</v>
-      </c>
-      <c r="CY4">
-        <f t="shared" ref="CY4:CY67" si="17">IFERROR(AVERAGE(BP4,BT4,BX4,CA4,CE4),0)</f>
-        <v>2.2666666666666666</v>
       </c>
       <c r="CZ4">
         <f t="shared" ref="CZ4:CZ67" si="18">IFERROR(AVERAGE(BP4,BT4,BX4,CA4,CE4),0)</f>
         <v>2.2666666666666666</v>
       </c>
+      <c r="DA4">
+        <f t="shared" ref="DA4:DA67" si="19">IFERROR(AVERAGE(CH4,CK4,CO4,CS4,CV4),0)</f>
+        <v>2.5255319148936168</v>
+      </c>
     </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3215,7 +3351,9 @@
       </c>
       <c r="CF5" s="12"/>
       <c r="CG5" s="15"/>
-      <c r="CH5" s="15"/>
+      <c r="CH5" s="15">
+        <v>0</v>
+      </c>
       <c r="CI5" s="15"/>
       <c r="CJ5" s="15"/>
       <c r="CK5" s="15">
@@ -3233,17 +3371,17 @@
       <c r="CR5" s="15">
         <v>0</v>
       </c>
-      <c r="CS5" s="15"/>
+      <c r="CS5" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT5" s="15"/>
-      <c r="CU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="19"/>
-      <c r="CW5" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX5">
+      <c r="CU5" s="15"/>
+      <c r="CV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="19"/>
+      <c r="CX5" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -3255,8 +3393,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3453,7 +3595,7 @@
         <v>207</v>
       </c>
       <c r="BV6" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BW6" s="13">
         <v>7</v>
@@ -3514,32 +3656,36 @@
       <c r="CR6" s="15">
         <v>3</v>
       </c>
-      <c r="CS6" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT6" s="15"/>
-      <c r="CU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV6" s="19"/>
-      <c r="CW6" s="7">
+      <c r="CS6" s="15">
         <f t="shared" si="15"/>
+        <v>3.1914893617021276</v>
+      </c>
+      <c r="CT6" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU6" s="15"/>
+      <c r="CV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW6" s="19"/>
+      <c r="CX6" s="7">
+        <f t="shared" si="16"/>
         <v>3.5833333333333335</v>
-      </c>
-      <c r="CX6">
-        <f t="shared" si="16"/>
-        <v>1.2</v>
       </c>
       <c r="CY6">
         <f t="shared" si="17"/>
-        <v>2.4333333333333331</v>
+        <v>1.2</v>
       </c>
       <c r="CZ6">
         <f t="shared" si="18"/>
         <v>2.4333333333333331</v>
       </c>
+      <c r="DA6">
+        <f t="shared" si="19"/>
+        <v>1.5382978723404255</v>
+      </c>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3715,7 +3861,9 @@
       </c>
       <c r="CF7" s="12"/>
       <c r="CG7" s="15"/>
-      <c r="CH7" s="15"/>
+      <c r="CH7" s="15">
+        <v>0</v>
+      </c>
       <c r="CI7" s="15"/>
       <c r="CJ7" s="15"/>
       <c r="CK7" s="15">
@@ -3733,30 +3881,34 @@
       <c r="CR7" s="15">
         <v>0</v>
       </c>
-      <c r="CS7" s="15"/>
+      <c r="CS7" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT7" s="15"/>
-      <c r="CU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="19"/>
-      <c r="CW7" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU7" s="15"/>
+      <c r="CV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="19"/>
+      <c r="CX7" s="7">
+        <f t="shared" si="16"/>
         <v>0.66666666666666674</v>
-      </c>
-      <c r="CX7">
-        <f t="shared" si="16"/>
-        <v>0.6</v>
       </c>
       <c r="CY7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CZ7">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3950,7 +4102,9 @@
       </c>
       <c r="CF8" s="12"/>
       <c r="CG8" s="15"/>
-      <c r="CH8" s="15"/>
+      <c r="CH8" s="15">
+        <v>0</v>
+      </c>
       <c r="CI8" s="15"/>
       <c r="CJ8" s="15">
         <v>11</v>
@@ -3972,30 +4126,34 @@
       <c r="CR8" s="15">
         <v>0</v>
       </c>
-      <c r="CS8" s="15"/>
+      <c r="CS8" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT8" s="15"/>
-      <c r="CU8" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="19"/>
-      <c r="CW8" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU8" s="15"/>
+      <c r="CV8" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW8" s="19"/>
+      <c r="CX8" s="7">
+        <f t="shared" si="16"/>
         <v>1.8333333333333333</v>
-      </c>
-      <c r="CX8">
-        <f t="shared" si="16"/>
-        <v>0.6</v>
       </c>
       <c r="CY8">
         <f t="shared" si="17"/>
-        <v>0.66666666666666674</v>
+        <v>0.6</v>
       </c>
       <c r="CZ8">
         <f t="shared" si="18"/>
         <v>0.66666666666666674</v>
       </c>
+      <c r="DA8">
+        <f t="shared" si="19"/>
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4161,7 +4319,9 @@
       </c>
       <c r="CF9" s="12"/>
       <c r="CG9" s="15"/>
-      <c r="CH9" s="15"/>
+      <c r="CH9" s="15">
+        <v>0</v>
+      </c>
       <c r="CI9" s="15"/>
       <c r="CJ9" s="15"/>
       <c r="CK9" s="15">
@@ -4179,19 +4339,19 @@
       <c r="CR9" s="15">
         <v>0</v>
       </c>
-      <c r="CS9" s="15"/>
+      <c r="CS9" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT9" s="15"/>
-      <c r="CU9" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV9" s="19"/>
-      <c r="CW9" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU9" s="15"/>
+      <c r="CV9" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW9" s="19"/>
+      <c r="CX9" s="7">
+        <f t="shared" si="16"/>
         <v>0.25</v>
-      </c>
-      <c r="CX9">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY9">
         <f t="shared" si="17"/>
@@ -4201,8 +4361,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4366,7 +4530,9 @@
       </c>
       <c r="CF10" s="12"/>
       <c r="CG10" s="15"/>
-      <c r="CH10" s="15"/>
+      <c r="CH10" s="15">
+        <v>0</v>
+      </c>
       <c r="CI10" s="15"/>
       <c r="CJ10" s="15"/>
       <c r="CK10" s="15">
@@ -4384,30 +4550,34 @@
       <c r="CR10" s="15">
         <v>0</v>
       </c>
-      <c r="CS10" s="15"/>
+      <c r="CS10" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT10" s="15"/>
-      <c r="CU10" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV10" s="19"/>
-      <c r="CW10" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX10">
+      <c r="CU10" s="15"/>
+      <c r="CV10" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW10" s="19"/>
+      <c r="CX10" s="7">
         <f t="shared" si="16"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="CY10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="CZ10">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4585,7 +4755,9 @@
         <v>201</v>
       </c>
       <c r="CG11" s="15"/>
-      <c r="CH11" s="15"/>
+      <c r="CH11" s="15">
+        <v>0</v>
+      </c>
       <c r="CI11" s="15"/>
       <c r="CJ11" s="15"/>
       <c r="CK11" s="15">
@@ -4603,30 +4775,34 @@
       <c r="CR11" s="15">
         <v>0</v>
       </c>
-      <c r="CS11" s="15"/>
+      <c r="CS11" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT11" s="15"/>
-      <c r="CU11" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV11" s="19"/>
-      <c r="CW11" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU11" s="15"/>
+      <c r="CV11" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="19"/>
+      <c r="CX11" s="7">
+        <f t="shared" si="16"/>
         <v>0.5</v>
-      </c>
-      <c r="CX11">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY11">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CZ11">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
+      <c r="DA11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4791,7 +4967,7 @@
         <v>224</v>
       </c>
       <c r="BB12" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BC12" s="9">
         <v>10</v>
@@ -4806,7 +4982,7 @@
         <v>9</v>
       </c>
       <c r="BG12" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BH12" s="8" t="s">
         <v>293</v>
@@ -4853,7 +5029,7 @@
         <v>207</v>
       </c>
       <c r="BV12" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BW12" s="12">
         <v>9</v>
@@ -4866,7 +5042,7 @@
         <v>207</v>
       </c>
       <c r="BZ12" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="CA12" s="12">
         <v>11</v>
@@ -4888,7 +5064,7 @@
         <v>207</v>
       </c>
       <c r="CG12" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="CH12" s="15">
         <v>3</v>
@@ -4897,7 +5073,7 @@
         <v>207</v>
       </c>
       <c r="CJ12" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="CK12" s="15">
         <v>8</v>
@@ -4924,32 +5100,42 @@
       <c r="CR12" s="15">
         <v>6</v>
       </c>
-      <c r="CS12" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT12" s="15"/>
-      <c r="CU12" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV12" s="19"/>
-      <c r="CW12" s="7">
+      <c r="CS12" s="15">
         <f t="shared" si="15"/>
+        <v>6.3829787234042552</v>
+      </c>
+      <c r="CT12" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU12" s="15"/>
+      <c r="CV12" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW12" s="19"/>
+      <c r="CX12" s="7">
+        <f t="shared" si="16"/>
         <v>5.1666666666666661</v>
-      </c>
-      <c r="CX12">
-        <f t="shared" si="16"/>
-        <v>9.1999999999999993</v>
       </c>
       <c r="CY12">
         <f t="shared" si="17"/>
-        <v>8.5333333333333332</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="CZ12">
         <f t="shared" si="18"/>
         <v>8.5333333333333332</v>
       </c>
+      <c r="DA12">
+        <f t="shared" si="19"/>
+        <v>4.4765957446808518</v>
+      </c>
+      <c r="DB12" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="DC12" s="20" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5115,7 +5301,9 @@
       </c>
       <c r="CF13" s="12"/>
       <c r="CG13" s="15"/>
-      <c r="CH13" s="15"/>
+      <c r="CH13" s="15">
+        <v>0</v>
+      </c>
       <c r="CI13" s="15"/>
       <c r="CJ13" s="15"/>
       <c r="CK13" s="15">
@@ -5133,19 +5321,19 @@
       <c r="CR13" s="15">
         <v>0</v>
       </c>
-      <c r="CS13" s="15"/>
+      <c r="CS13" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT13" s="15"/>
-      <c r="CU13" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV13" s="19"/>
-      <c r="CW13" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU13" s="15"/>
+      <c r="CV13" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW13" s="19"/>
+      <c r="CX13" s="7">
+        <f t="shared" si="16"/>
         <v>0.33333333333333337</v>
-      </c>
-      <c r="CX13">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY13">
         <f t="shared" si="17"/>
@@ -5155,8 +5343,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA13">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -5338,7 +5530,9 @@
       </c>
       <c r="CF14" s="12"/>
       <c r="CG14" s="15"/>
-      <c r="CH14" s="15"/>
+      <c r="CH14" s="15">
+        <v>0</v>
+      </c>
       <c r="CI14" s="15"/>
       <c r="CJ14" s="15"/>
       <c r="CK14" s="15">
@@ -5360,30 +5554,34 @@
       <c r="CR14" s="15">
         <v>0</v>
       </c>
-      <c r="CS14" s="15"/>
+      <c r="CS14" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT14" s="15"/>
-      <c r="CU14" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV14" s="19"/>
-      <c r="CW14" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU14" s="15"/>
+      <c r="CV14" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW14" s="19"/>
+      <c r="CX14" s="7">
+        <f t="shared" si="16"/>
         <v>1.3333333333333335</v>
-      </c>
-      <c r="CX14">
-        <f t="shared" si="16"/>
-        <v>0.4</v>
       </c>
       <c r="CY14">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="CZ14">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA14">
+        <f t="shared" si="19"/>
+        <v>1.3333333333333335</v>
+      </c>
     </row>
-    <row r="15" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -5584,7 +5782,7 @@
         <v>201</v>
       </c>
       <c r="BV15" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BW15" s="13">
         <v>6</v>
@@ -5597,7 +5795,7 @@
         <v>201</v>
       </c>
       <c r="BZ15" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="CA15" s="12">
         <v>6</v>
@@ -5613,10 +5811,12 @@
       </c>
       <c r="CF15" s="12"/>
       <c r="CG15" s="15"/>
-      <c r="CH15" s="15"/>
+      <c r="CH15" s="15">
+        <v>0</v>
+      </c>
       <c r="CI15" s="15"/>
       <c r="CJ15" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="CK15" s="15">
         <v>4</v>
@@ -5625,7 +5825,7 @@
         <v>201</v>
       </c>
       <c r="CM15" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="CN15" s="16">
         <v>6</v>
@@ -5643,32 +5843,36 @@
       <c r="CR15" s="15">
         <v>2</v>
       </c>
-      <c r="CS15" s="15" t="s">
+      <c r="CS15" s="15">
+        <f t="shared" si="15"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="CT15" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="CT15" s="15"/>
-      <c r="CU15" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV15" s="19"/>
-      <c r="CW15" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU15" s="15"/>
+      <c r="CV15" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW15" s="19"/>
+      <c r="CX15" s="7">
+        <f t="shared" si="16"/>
         <v>2.333333333333333</v>
-      </c>
-      <c r="CX15">
-        <f t="shared" si="16"/>
-        <v>1.8</v>
       </c>
       <c r="CY15">
         <f t="shared" si="17"/>
-        <v>3.8666666666666663</v>
+        <v>1.8</v>
       </c>
       <c r="CZ15">
         <f t="shared" si="18"/>
         <v>3.8666666666666663</v>
       </c>
+      <c r="DA15">
+        <f t="shared" si="19"/>
+        <v>2.225531914893617</v>
+      </c>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -5883,7 +6087,7 @@
         <v>201</v>
       </c>
       <c r="CC16" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CD16" s="12">
         <v>6</v>
@@ -5905,7 +6109,7 @@
         <v>201</v>
       </c>
       <c r="CJ16" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CK16" s="15">
         <v>6</v>
@@ -5932,32 +6136,42 @@
       <c r="CR16" s="15">
         <v>2</v>
       </c>
-      <c r="CS16" s="15" t="s">
+      <c r="CS16" s="15">
+        <f t="shared" si="15"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="CT16" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="CT16" s="15"/>
-      <c r="CU16" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV16" s="19"/>
-      <c r="CW16" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU16" s="15"/>
+      <c r="CV16" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW16" s="19"/>
+      <c r="CX16" s="7">
+        <f t="shared" si="16"/>
         <v>2.6666666666666665</v>
-      </c>
-      <c r="CX16">
-        <f t="shared" si="16"/>
-        <v>5</v>
       </c>
       <c r="CY16">
         <f t="shared" si="17"/>
-        <v>2.2666666666666666</v>
+        <v>5</v>
       </c>
       <c r="CZ16">
         <f t="shared" si="18"/>
         <v>2.2666666666666666</v>
       </c>
+      <c r="DA16">
+        <f t="shared" si="19"/>
+        <v>2.5255319148936168</v>
+      </c>
+      <c r="DB16" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="DC16" s="20" t="s">
+        <v>432</v>
+      </c>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -6094,7 +6308,7 @@
       </c>
       <c r="BA17" s="8"/>
       <c r="BB17" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="BC17" s="8">
         <v>7</v>
@@ -6181,7 +6395,7 @@
         <v>207</v>
       </c>
       <c r="CG17" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="CH17" s="15">
         <v>6</v>
@@ -6209,30 +6423,40 @@
       <c r="CR17" s="15">
         <v>0</v>
       </c>
-      <c r="CS17" s="15"/>
+      <c r="CS17" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT17" s="15"/>
-      <c r="CU17" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV17" s="19"/>
-      <c r="CW17" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU17" s="15"/>
+      <c r="CV17" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW17" s="19"/>
+      <c r="CX17" s="7">
+        <f t="shared" si="16"/>
         <v>2.916666666666667</v>
-      </c>
-      <c r="CX17">
-        <f t="shared" si="16"/>
-        <v>3.8</v>
       </c>
       <c r="CY17">
         <f t="shared" si="17"/>
-        <v>3.6666666666666665</v>
+        <v>3.8</v>
       </c>
       <c r="CZ17">
         <f t="shared" si="18"/>
         <v>3.6666666666666665</v>
       </c>
+      <c r="DA17">
+        <f t="shared" si="19"/>
+        <v>2.4</v>
+      </c>
+      <c r="DB17" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="DC17" s="20" t="s">
+        <v>434</v>
+      </c>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -6398,7 +6622,9 @@
       </c>
       <c r="CF18" s="12"/>
       <c r="CG18" s="15"/>
-      <c r="CH18" s="15"/>
+      <c r="CH18" s="15">
+        <v>0</v>
+      </c>
       <c r="CI18" s="15"/>
       <c r="CJ18" s="15"/>
       <c r="CK18" s="15">
@@ -6416,19 +6642,19 @@
       <c r="CR18" s="15">
         <v>0</v>
       </c>
-      <c r="CS18" s="15"/>
+      <c r="CS18" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT18" s="15"/>
-      <c r="CU18" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV18" s="19"/>
-      <c r="CW18" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU18" s="15"/>
+      <c r="CV18" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW18" s="19"/>
+      <c r="CX18" s="7">
+        <f t="shared" si="16"/>
         <v>0.33333333333333337</v>
-      </c>
-      <c r="CX18">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY18">
         <f t="shared" si="17"/>
@@ -6438,8 +6664,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA18">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -6677,30 +6907,34 @@
       <c r="CR19" s="15">
         <v>0</v>
       </c>
-      <c r="CS19" s="15"/>
+      <c r="CS19" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT19" s="15"/>
-      <c r="CU19" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV19" s="19"/>
-      <c r="CW19" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU19" s="15"/>
+      <c r="CV19" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW19" s="19"/>
+      <c r="CX19" s="7">
+        <f t="shared" si="16"/>
         <v>0.75</v>
-      </c>
-      <c r="CX19">
-        <f t="shared" si="16"/>
-        <v>3</v>
       </c>
       <c r="CY19">
         <f t="shared" si="17"/>
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="CZ19">
         <f t="shared" si="18"/>
         <v>1.1000000000000001</v>
       </c>
+      <c r="DA19">
+        <f t="shared" si="19"/>
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -6870,7 +7104,9 @@
       </c>
       <c r="CF20" s="12"/>
       <c r="CG20" s="15"/>
-      <c r="CH20" s="15"/>
+      <c r="CH20" s="15">
+        <v>0</v>
+      </c>
       <c r="CI20" s="15"/>
       <c r="CJ20" s="15"/>
       <c r="CK20" s="15">
@@ -6888,30 +7124,34 @@
       <c r="CR20" s="15">
         <v>0</v>
       </c>
-      <c r="CS20" s="15"/>
+      <c r="CS20" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT20" s="15"/>
-      <c r="CU20" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV20" s="19"/>
-      <c r="CW20" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU20" s="15"/>
+      <c r="CV20" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW20" s="19"/>
+      <c r="CX20" s="7">
+        <f t="shared" si="16"/>
         <v>0.75</v>
-      </c>
-      <c r="CX20">
-        <f t="shared" si="16"/>
-        <v>1</v>
       </c>
       <c r="CY20">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ20">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -7077,7 +7317,9 @@
       </c>
       <c r="CF21" s="12"/>
       <c r="CG21" s="15"/>
-      <c r="CH21" s="15"/>
+      <c r="CH21" s="15">
+        <v>0</v>
+      </c>
       <c r="CI21" s="15"/>
       <c r="CJ21" s="15"/>
       <c r="CK21" s="15">
@@ -7095,19 +7337,19 @@
       <c r="CR21" s="15">
         <v>0</v>
       </c>
-      <c r="CS21" s="15"/>
+      <c r="CS21" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT21" s="15"/>
-      <c r="CU21" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV21" s="19"/>
-      <c r="CW21" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU21" s="15"/>
+      <c r="CV21" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW21" s="19"/>
+      <c r="CX21" s="7">
+        <f t="shared" si="16"/>
         <v>0.33333333333333337</v>
-      </c>
-      <c r="CX21">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY21">
         <f t="shared" si="17"/>
@@ -7117,8 +7359,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -7386,32 +7632,36 @@
       <c r="CR22" s="15">
         <v>2</v>
       </c>
-      <c r="CS22" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT22" s="15"/>
-      <c r="CU22" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV22" s="19"/>
-      <c r="CW22" s="7">
+      <c r="CS22" s="15">
         <f t="shared" si="15"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="CT22" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU22" s="15"/>
+      <c r="CV22" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW22" s="19"/>
+      <c r="CX22" s="7">
+        <f t="shared" si="16"/>
         <v>3.75</v>
-      </c>
-      <c r="CX22">
-        <f t="shared" si="16"/>
-        <v>0.6</v>
       </c>
       <c r="CY22">
         <f t="shared" si="17"/>
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="CZ22">
         <f t="shared" si="18"/>
         <v>2.1</v>
       </c>
+      <c r="DA22">
+        <f t="shared" si="19"/>
+        <v>1.5255319148936171</v>
+      </c>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -7645,7 +7895,9 @@
         <v>207</v>
       </c>
       <c r="CG23" s="15"/>
-      <c r="CH23" s="15"/>
+      <c r="CH23" s="15">
+        <v>0</v>
+      </c>
       <c r="CI23" s="15"/>
       <c r="CJ23" s="15"/>
       <c r="CK23" s="15">
@@ -7671,32 +7923,42 @@
       <c r="CR23" s="15">
         <v>6</v>
       </c>
-      <c r="CS23" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT23" s="15"/>
-      <c r="CU23" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV23" s="19"/>
-      <c r="CW23" s="7">
+      <c r="CS23" s="15">
         <f t="shared" si="15"/>
+        <v>6.3829787234042552</v>
+      </c>
+      <c r="CT23" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU23" s="15"/>
+      <c r="CV23" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW23" s="19"/>
+      <c r="CX23" s="7">
+        <f t="shared" si="16"/>
         <v>4.6666666666666661</v>
-      </c>
-      <c r="CX23">
-        <f t="shared" si="16"/>
-        <v>1.2</v>
       </c>
       <c r="CY23">
         <f t="shared" si="17"/>
-        <v>4.2666666666666675</v>
+        <v>1.2</v>
       </c>
       <c r="CZ23">
         <f t="shared" si="18"/>
         <v>4.2666666666666675</v>
       </c>
+      <c r="DA23">
+        <f t="shared" si="19"/>
+        <v>2.2765957446808511</v>
+      </c>
+      <c r="DB23" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="DC23" s="20" t="s">
+        <v>436</v>
+      </c>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -7896,7 +8158,9 @@
       </c>
       <c r="CF24" s="12"/>
       <c r="CG24" s="15"/>
-      <c r="CH24" s="15"/>
+      <c r="CH24" s="15">
+        <v>0</v>
+      </c>
       <c r="CI24" s="15"/>
       <c r="CJ24" s="15">
         <v>19</v>
@@ -7918,30 +8182,34 @@
       <c r="CR24" s="15">
         <v>0</v>
       </c>
-      <c r="CS24" s="15"/>
+      <c r="CS24" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT24" s="15"/>
-      <c r="CU24" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV24" s="19"/>
-      <c r="CW24" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU24" s="15"/>
+      <c r="CV24" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW24" s="19"/>
+      <c r="CX24" s="7">
+        <f t="shared" si="16"/>
         <v>1.5833333333333335</v>
-      </c>
-      <c r="CX24">
-        <f t="shared" si="16"/>
-        <v>0.6</v>
       </c>
       <c r="CY24">
         <f t="shared" si="17"/>
-        <v>0.66666666666666674</v>
+        <v>0.6</v>
       </c>
       <c r="CZ24">
         <f t="shared" si="18"/>
         <v>0.66666666666666674</v>
       </c>
+      <c r="DA24">
+        <f t="shared" si="19"/>
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -8174,7 +8442,7 @@
         <v>207</v>
       </c>
       <c r="BV25" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BW25" s="13">
         <v>22</v>
@@ -8187,7 +8455,7 @@
         <v>207</v>
       </c>
       <c r="BZ25" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="CA25" s="12">
         <v>9</v>
@@ -8196,7 +8464,7 @@
         <v>207</v>
       </c>
       <c r="CC25" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="CD25" s="12">
         <v>15</v>
@@ -8209,7 +8477,7 @@
         <v>207</v>
       </c>
       <c r="CG25" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="CH25" s="15">
         <v>13</v>
@@ -8218,7 +8486,7 @@
         <v>207</v>
       </c>
       <c r="CJ25" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="CK25" s="15">
         <v>16</v>
@@ -8227,7 +8495,7 @@
         <v>207</v>
       </c>
       <c r="CM25" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="CN25" s="16">
         <v>13</v>
@@ -8245,32 +8513,42 @@
       <c r="CR25" s="15">
         <v>9</v>
       </c>
-      <c r="CS25" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT25" s="15"/>
-      <c r="CU25" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV25" s="19"/>
-      <c r="CW25" s="7">
+      <c r="CS25" s="15">
         <f t="shared" si="15"/>
+        <v>9.5744680851063837</v>
+      </c>
+      <c r="CT25" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU25" s="15"/>
+      <c r="CV25" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW25" s="19"/>
+      <c r="CX25" s="7">
+        <f t="shared" si="16"/>
         <v>15.166666666666671</v>
-      </c>
-      <c r="CX25">
-        <f t="shared" si="16"/>
-        <v>12.8</v>
       </c>
       <c r="CY25">
         <f t="shared" si="17"/>
-        <v>13.966666666666665</v>
+        <v>12.8</v>
       </c>
       <c r="CZ25">
         <f t="shared" si="18"/>
         <v>13.966666666666665</v>
       </c>
+      <c r="DA25">
+        <f t="shared" si="19"/>
+        <v>9.8815602836879428</v>
+      </c>
+      <c r="DB25" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="DC25" s="20" t="s">
+        <v>426</v>
+      </c>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -8484,7 +8762,9 @@
       </c>
       <c r="CF26" s="12"/>
       <c r="CG26" s="15"/>
-      <c r="CH26" s="15"/>
+      <c r="CH26" s="15">
+        <v>0</v>
+      </c>
       <c r="CI26" s="15"/>
       <c r="CJ26" s="15"/>
       <c r="CK26" s="15">
@@ -8502,30 +8782,34 @@
       <c r="CR26" s="15">
         <v>0</v>
       </c>
-      <c r="CS26" s="15"/>
+      <c r="CS26" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT26" s="15"/>
-      <c r="CU26" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV26" s="19"/>
-      <c r="CW26" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU26" s="15"/>
+      <c r="CV26" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW26" s="19"/>
+      <c r="CX26" s="7">
+        <f t="shared" si="16"/>
         <v>3</v>
-      </c>
-      <c r="CX26">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY26">
         <f t="shared" si="17"/>
-        <v>0.66666666666666674</v>
+        <v>0</v>
       </c>
       <c r="CZ26">
         <f t="shared" si="18"/>
         <v>0.66666666666666674</v>
       </c>
+      <c r="DA26">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -8697,7 +8981,9 @@
       </c>
       <c r="CF27" s="12"/>
       <c r="CG27" s="15"/>
-      <c r="CH27" s="15"/>
+      <c r="CH27" s="15">
+        <v>0</v>
+      </c>
       <c r="CI27" s="15"/>
       <c r="CJ27" s="15"/>
       <c r="CK27" s="15">
@@ -8715,19 +9001,19 @@
       <c r="CR27" s="15">
         <v>0</v>
       </c>
-      <c r="CS27" s="15"/>
+      <c r="CS27" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT27" s="15"/>
-      <c r="CU27" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV27" s="19"/>
-      <c r="CW27" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU27" s="15"/>
+      <c r="CV27" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW27" s="19"/>
+      <c r="CX27" s="7">
+        <f t="shared" si="16"/>
         <v>1.0833333333333335</v>
-      </c>
-      <c r="CX27">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY27">
         <f t="shared" si="17"/>
@@ -8737,8 +9023,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA27">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -8914,7 +9204,9 @@
         <v>201</v>
       </c>
       <c r="CG28" s="15"/>
-      <c r="CH28" s="15"/>
+      <c r="CH28" s="15">
+        <v>0</v>
+      </c>
       <c r="CI28" s="15"/>
       <c r="CJ28" s="15"/>
       <c r="CK28" s="15">
@@ -8932,30 +9224,34 @@
       <c r="CR28" s="15">
         <v>0</v>
       </c>
-      <c r="CS28" s="15"/>
+      <c r="CS28" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT28" s="15"/>
-      <c r="CU28" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV28" s="19"/>
-      <c r="CW28" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU28" s="15"/>
+      <c r="CV28" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW28" s="19"/>
+      <c r="CX28" s="7">
+        <f t="shared" si="16"/>
         <v>0.33333333333333337</v>
-      </c>
-      <c r="CX28">
-        <f t="shared" si="16"/>
-        <v>0.6</v>
       </c>
       <c r="CY28">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="CZ28">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
+      <c r="DA28">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -9125,7 +9421,9 @@
       </c>
       <c r="CF29" s="12"/>
       <c r="CG29" s="15"/>
-      <c r="CH29" s="15"/>
+      <c r="CH29" s="15">
+        <v>0</v>
+      </c>
       <c r="CI29" s="15"/>
       <c r="CJ29" s="15"/>
       <c r="CK29" s="15">
@@ -9143,30 +9441,34 @@
       <c r="CR29" s="15">
         <v>0</v>
       </c>
-      <c r="CS29" s="15"/>
+      <c r="CS29" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT29" s="15"/>
-      <c r="CU29" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV29" s="19"/>
-      <c r="CW29" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU29" s="15"/>
+      <c r="CV29" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW29" s="19"/>
+      <c r="CX29" s="7">
+        <f t="shared" si="16"/>
         <v>0.33333333333333337</v>
-      </c>
-      <c r="CX29">
-        <f t="shared" si="16"/>
-        <v>1</v>
       </c>
       <c r="CY29">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ29">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA29">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -9342,7 +9644,9 @@
       </c>
       <c r="CF30" s="12"/>
       <c r="CG30" s="15"/>
-      <c r="CH30" s="15"/>
+      <c r="CH30" s="15">
+        <v>0</v>
+      </c>
       <c r="CI30" s="15"/>
       <c r="CJ30" s="15"/>
       <c r="CK30" s="15">
@@ -9360,30 +9664,34 @@
       <c r="CR30" s="15">
         <v>0</v>
       </c>
-      <c r="CS30" s="15"/>
+      <c r="CS30" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT30" s="15"/>
-      <c r="CU30" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV30" s="19"/>
-      <c r="CW30" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU30" s="15"/>
+      <c r="CV30" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW30" s="19"/>
+      <c r="CX30" s="7">
+        <f t="shared" si="16"/>
         <v>0.66666666666666674</v>
-      </c>
-      <c r="CX30">
-        <f t="shared" si="16"/>
-        <v>1.2</v>
       </c>
       <c r="CY30">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="CZ30">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
+      <c r="DA30">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -9566,19 +9874,19 @@
       <c r="CR31" s="15">
         <v>0</v>
       </c>
-      <c r="CS31" s="15"/>
+      <c r="CS31" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT31" s="15"/>
-      <c r="CU31" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV31" s="19"/>
-      <c r="CW31" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU31" s="15"/>
+      <c r="CV31" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW31" s="19"/>
+      <c r="CX31" s="7">
+        <f t="shared" si="16"/>
         <v>0.5</v>
-      </c>
-      <c r="CX31">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY31">
         <f t="shared" si="17"/>
@@ -9588,8 +9896,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA31">
+        <f t="shared" si="19"/>
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="32" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -9759,7 +10071,9 @@
       </c>
       <c r="CF32" s="12"/>
       <c r="CG32" s="15"/>
-      <c r="CH32" s="15"/>
+      <c r="CH32" s="15">
+        <v>0</v>
+      </c>
       <c r="CI32" s="15"/>
       <c r="CJ32" s="15"/>
       <c r="CK32" s="15">
@@ -9777,30 +10091,34 @@
       <c r="CR32" s="15">
         <v>0</v>
       </c>
-      <c r="CS32" s="15"/>
+      <c r="CS32" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT32" s="15"/>
-      <c r="CU32" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV32" s="19"/>
-      <c r="CW32" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU32" s="15"/>
+      <c r="CV32" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW32" s="19"/>
+      <c r="CX32" s="7">
+        <f t="shared" si="16"/>
         <v>0.25</v>
-      </c>
-      <c r="CX32">
-        <f t="shared" si="16"/>
-        <v>0.6</v>
       </c>
       <c r="CY32">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CZ32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -10039,7 +10357,7 @@
         <v>207</v>
       </c>
       <c r="CC33" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="CD33" s="12">
         <v>13</v>
@@ -10083,37 +10401,47 @@
         <v>207</v>
       </c>
       <c r="CQ33" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR33" s="15">
         <v>8</v>
       </c>
-      <c r="CS33" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT33" s="15"/>
-      <c r="CU33" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV33" s="19"/>
-      <c r="CW33" s="7">
+      <c r="CS33" s="15">
         <f t="shared" si="15"/>
+        <v>8.5106382978723403</v>
+      </c>
+      <c r="CT33" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU33" s="15"/>
+      <c r="CV33" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW33" s="19"/>
+      <c r="CX33" s="7">
+        <f t="shared" si="16"/>
         <v>5.1666666666666661</v>
-      </c>
-      <c r="CX33">
-        <f t="shared" si="16"/>
-        <v>3.4</v>
       </c>
       <c r="CY33">
         <f t="shared" si="17"/>
-        <v>6.2666666666666675</v>
+        <v>3.4</v>
       </c>
       <c r="CZ33">
         <f t="shared" si="18"/>
         <v>6.2666666666666675</v>
       </c>
+      <c r="DA33">
+        <f t="shared" si="19"/>
+        <v>6.3354609929078007</v>
+      </c>
+      <c r="DB33" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="DC33" s="20" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="34" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -10271,7 +10599,9 @@
       </c>
       <c r="CF34" s="12"/>
       <c r="CG34" s="15"/>
-      <c r="CH34" s="15"/>
+      <c r="CH34" s="15">
+        <v>0</v>
+      </c>
       <c r="CI34" s="15"/>
       <c r="CJ34" s="15"/>
       <c r="CK34" s="15">
@@ -10289,17 +10619,17 @@
       <c r="CR34" s="15">
         <v>0</v>
       </c>
-      <c r="CS34" s="15"/>
+      <c r="CS34" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT34" s="15"/>
-      <c r="CU34" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV34" s="19"/>
-      <c r="CW34" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX34">
+      <c r="CU34" s="15"/>
+      <c r="CV34" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW34" s="19"/>
+      <c r="CX34" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -10311,8 +10641,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA34">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -10441,7 +10775,7 @@
         <v>3.3333333333333335</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AY35" s="8"/>
       <c r="AZ35" s="8">
@@ -10455,7 +10789,7 @@
         <v>3</v>
       </c>
       <c r="BD35" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="BE35" s="8">
         <v>3</v>
@@ -10582,32 +10916,36 @@
       <c r="CR35" s="15">
         <v>3</v>
       </c>
-      <c r="CS35" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT35" s="15"/>
-      <c r="CU35" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV35" s="19"/>
-      <c r="CW35" s="7">
+      <c r="CS35" s="15">
         <f t="shared" si="15"/>
+        <v>3.1914893617021276</v>
+      </c>
+      <c r="CT35" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU35" s="15"/>
+      <c r="CV35" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW35" s="19"/>
+      <c r="CX35" s="7">
+        <f t="shared" si="16"/>
         <v>2.583333333333333</v>
-      </c>
-      <c r="CX35">
-        <f t="shared" si="16"/>
-        <v>2.4</v>
       </c>
       <c r="CY35">
         <f t="shared" si="17"/>
-        <v>4.0999999999999996</v>
+        <v>2.4</v>
       </c>
       <c r="CZ35">
         <f t="shared" si="18"/>
         <v>4.0999999999999996</v>
       </c>
+      <c r="DA35">
+        <f t="shared" si="19"/>
+        <v>2.6382978723404258</v>
+      </c>
     </row>
-    <row r="36" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -10795,7 +11133,9 @@
       </c>
       <c r="CF36" s="12"/>
       <c r="CG36" s="15"/>
-      <c r="CH36" s="15"/>
+      <c r="CH36" s="15">
+        <v>0</v>
+      </c>
       <c r="CI36" s="15"/>
       <c r="CJ36" s="15"/>
       <c r="CK36" s="15">
@@ -10813,30 +11153,34 @@
       <c r="CR36" s="15">
         <v>0</v>
       </c>
-      <c r="CS36" s="15"/>
+      <c r="CS36" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT36" s="15"/>
-      <c r="CU36" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV36" s="19"/>
-      <c r="CW36" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU36" s="15"/>
+      <c r="CV36" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW36" s="19"/>
+      <c r="CX36" s="7">
+        <f t="shared" si="16"/>
         <v>2.166666666666667</v>
-      </c>
-      <c r="CX36">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
       </c>
       <c r="CY36">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="CZ36">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -11002,7 +11346,9 @@
       </c>
       <c r="CF37" s="12"/>
       <c r="CG37" s="15"/>
-      <c r="CH37" s="15"/>
+      <c r="CH37" s="15">
+        <v>0</v>
+      </c>
       <c r="CI37" s="15"/>
       <c r="CJ37" s="15"/>
       <c r="CK37" s="15">
@@ -11020,30 +11366,34 @@
       <c r="CR37" s="15">
         <v>0</v>
       </c>
-      <c r="CS37" s="15"/>
+      <c r="CS37" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT37" s="15"/>
-      <c r="CU37" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV37" s="19"/>
-      <c r="CW37" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX37">
+      <c r="CU37" s="15"/>
+      <c r="CV37" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW37" s="19"/>
+      <c r="CX37" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="CY37">
         <f t="shared" si="17"/>
-        <v>0.66666666666666674</v>
+        <v>0</v>
       </c>
       <c r="CZ37">
         <f t="shared" si="18"/>
         <v>0.66666666666666674</v>
       </c>
+      <c r="DA37">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -11203,7 +11553,9 @@
       </c>
       <c r="CF38" s="12"/>
       <c r="CG38" s="15"/>
-      <c r="CH38" s="15"/>
+      <c r="CH38" s="15">
+        <v>0</v>
+      </c>
       <c r="CI38" s="15"/>
       <c r="CJ38" s="15"/>
       <c r="CK38" s="15">
@@ -11227,17 +11579,17 @@
       <c r="CR38" s="15">
         <v>0</v>
       </c>
-      <c r="CS38" s="15"/>
+      <c r="CS38" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT38" s="15"/>
-      <c r="CU38" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV38" s="19"/>
-      <c r="CW38" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX38">
+      <c r="CU38" s="15"/>
+      <c r="CV38" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW38" s="19"/>
+      <c r="CX38" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -11249,8 +11601,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA38">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -11410,7 +11766,9 @@
       </c>
       <c r="CF39" s="12"/>
       <c r="CG39" s="15"/>
-      <c r="CH39" s="15"/>
+      <c r="CH39" s="15">
+        <v>0</v>
+      </c>
       <c r="CI39" s="15"/>
       <c r="CJ39" s="15"/>
       <c r="CK39" s="15">
@@ -11428,17 +11786,17 @@
       <c r="CR39" s="15">
         <v>0</v>
       </c>
-      <c r="CS39" s="15"/>
+      <c r="CS39" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT39" s="15"/>
-      <c r="CU39" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV39" s="19"/>
-      <c r="CW39" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX39">
+      <c r="CU39" s="15"/>
+      <c r="CV39" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW39" s="19"/>
+      <c r="CX39" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -11450,8 +11808,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA39">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -11721,36 +12083,40 @@
       <c r="CR40" s="15">
         <v>3</v>
       </c>
-      <c r="CS40" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT40" s="15">
-        <v>3</v>
+      <c r="CS40" s="15">
+        <f t="shared" si="15"/>
+        <v>3.1914893617021276</v>
+      </c>
+      <c r="CT40" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="CU40" s="15">
         <v>3</v>
       </c>
-      <c r="CV40" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW40" s="7">
-        <f t="shared" si="15"/>
+      <c r="CV40" s="15">
+        <v>3</v>
+      </c>
+      <c r="CW40" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX40" s="7">
+        <f t="shared" si="16"/>
         <v>2.75</v>
-      </c>
-      <c r="CX40">
-        <f t="shared" si="16"/>
-        <v>1.2</v>
       </c>
       <c r="CY40">
         <f t="shared" si="17"/>
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="CZ40">
         <f t="shared" si="18"/>
         <v>2.1</v>
       </c>
+      <c r="DA40">
+        <f t="shared" si="19"/>
+        <v>2.1382978723404258</v>
+      </c>
     </row>
-    <row r="41" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -11930,7 +12296,9 @@
         <v>207</v>
       </c>
       <c r="CG41" s="15"/>
-      <c r="CH41" s="15"/>
+      <c r="CH41" s="15">
+        <v>0</v>
+      </c>
       <c r="CI41" s="15"/>
       <c r="CJ41" s="15">
         <v>8</v>
@@ -11952,30 +12320,34 @@
       <c r="CR41" s="15">
         <v>0</v>
       </c>
-      <c r="CS41" s="15"/>
+      <c r="CS41" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT41" s="15"/>
-      <c r="CU41" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV41" s="19"/>
-      <c r="CW41" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX41">
+      <c r="CU41" s="15"/>
+      <c r="CV41" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW41" s="19"/>
+      <c r="CX41" s="7">
         <f t="shared" si="16"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CY41">
         <f t="shared" si="17"/>
-        <v>3.3666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="CZ41">
         <f t="shared" si="18"/>
         <v>3.3666666666666663</v>
       </c>
+      <c r="DA41">
+        <f t="shared" si="19"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="42" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -12141,7 +12513,9 @@
       </c>
       <c r="CF42" s="12"/>
       <c r="CG42" s="15"/>
-      <c r="CH42" s="15"/>
+      <c r="CH42" s="15">
+        <v>0</v>
+      </c>
       <c r="CI42" s="15"/>
       <c r="CJ42" s="15"/>
       <c r="CK42" s="15">
@@ -12159,19 +12533,19 @@
       <c r="CR42" s="15">
         <v>0</v>
       </c>
-      <c r="CS42" s="15"/>
+      <c r="CS42" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT42" s="15"/>
-      <c r="CU42" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV42" s="19"/>
-      <c r="CW42" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU42" s="15"/>
+      <c r="CV42" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW42" s="19"/>
+      <c r="CX42" s="7">
+        <f t="shared" si="16"/>
         <v>1</v>
-      </c>
-      <c r="CX42">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY42">
         <f t="shared" si="17"/>
@@ -12181,8 +12555,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA42">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -12341,7 +12719,7 @@
       </c>
       <c r="BA43" s="9"/>
       <c r="BB43" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BC43" s="9">
         <v>6</v>
@@ -12410,7 +12788,7 @@
         <v>207</v>
       </c>
       <c r="BZ43" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CA43" s="12">
         <v>6</v>
@@ -12419,7 +12797,7 @@
         <v>207</v>
       </c>
       <c r="CC43" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="CD43" s="12">
         <v>14</v>
@@ -12432,7 +12810,7 @@
         <v>207</v>
       </c>
       <c r="CG43" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="CH43" s="15">
         <v>9</v>
@@ -12441,7 +12819,7 @@
         <v>207</v>
       </c>
       <c r="CJ43" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="CK43" s="15">
         <v>5</v>
@@ -12450,7 +12828,7 @@
         <v>207</v>
       </c>
       <c r="CM43" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="CN43" s="16">
         <v>6</v>
@@ -12468,36 +12846,46 @@
       <c r="CR43" s="15">
         <v>3</v>
       </c>
-      <c r="CS43" s="15" t="s">
-        <v>207</v>
+      <c r="CS43" s="15">
+        <f t="shared" si="15"/>
+        <v>3.1914893617021276</v>
       </c>
       <c r="CT43" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="CU43" s="15">
+        <v>207</v>
+      </c>
+      <c r="CU43" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="CV43" s="15">
         <v>9</v>
       </c>
-      <c r="CV43" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW43" s="7">
-        <f t="shared" si="15"/>
+      <c r="CW43" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX43" s="7">
+        <f t="shared" si="16"/>
         <v>7.1666666666666661</v>
-      </c>
-      <c r="CX43">
-        <f t="shared" si="16"/>
-        <v>5.4</v>
       </c>
       <c r="CY43">
         <f t="shared" si="17"/>
-        <v>4.8666666666666671</v>
+        <v>5.4</v>
       </c>
       <c r="CZ43">
         <f t="shared" si="18"/>
         <v>4.8666666666666671</v>
       </c>
+      <c r="DA43">
+        <f t="shared" si="19"/>
+        <v>6.2382978723404259</v>
+      </c>
+      <c r="DB43" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="DC43" s="20" t="s">
+        <v>437</v>
+      </c>
     </row>
-    <row r="44" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -12657,7 +13045,9 @@
       </c>
       <c r="CF44" s="12"/>
       <c r="CG44" s="15"/>
-      <c r="CH44" s="15"/>
+      <c r="CH44" s="15">
+        <v>0</v>
+      </c>
       <c r="CI44" s="15"/>
       <c r="CJ44" s="15"/>
       <c r="CK44" s="15">
@@ -12675,17 +13065,17 @@
       <c r="CR44" s="15">
         <v>0</v>
       </c>
-      <c r="CS44" s="15"/>
+      <c r="CS44" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT44" s="15"/>
-      <c r="CU44" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV44" s="19"/>
-      <c r="CW44" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX44">
+      <c r="CU44" s="15"/>
+      <c r="CV44" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW44" s="19"/>
+      <c r="CX44" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -12697,8 +13087,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -12829,7 +13223,7 @@
         <v>3</v>
       </c>
       <c r="BD45" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BE45" s="8"/>
       <c r="BF45" s="8">
@@ -12885,7 +13279,7 @@
         <v>207</v>
       </c>
       <c r="CC45" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CD45" s="12">
         <v>6</v>
@@ -12898,7 +13292,9 @@
         <v>207</v>
       </c>
       <c r="CG45" s="15"/>
-      <c r="CH45" s="15"/>
+      <c r="CH45" s="15">
+        <v>0</v>
+      </c>
       <c r="CI45" s="15"/>
       <c r="CJ45" s="15">
         <v>20</v>
@@ -12922,32 +13318,36 @@
       <c r="CR45" s="15">
         <v>9</v>
       </c>
-      <c r="CS45" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT45" s="15"/>
-      <c r="CU45" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV45" s="19"/>
-      <c r="CW45" s="7">
+      <c r="CS45" s="15">
         <f t="shared" si="15"/>
+        <v>9.5744680851063837</v>
+      </c>
+      <c r="CT45" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU45" s="15"/>
+      <c r="CV45" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW45" s="19"/>
+      <c r="CX45" s="7">
+        <f t="shared" si="16"/>
         <v>1.5</v>
-      </c>
-      <c r="CX45">
-        <f t="shared" si="16"/>
-        <v>1.2</v>
       </c>
       <c r="CY45">
         <f t="shared" si="17"/>
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="CZ45">
         <f t="shared" si="18"/>
         <v>3.6</v>
       </c>
+      <c r="DA45">
+        <f t="shared" si="19"/>
+        <v>2.5148936170212766</v>
+      </c>
     </row>
-    <row r="46" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -13207,36 +13607,40 @@
       <c r="CR46" s="15">
         <v>2</v>
       </c>
-      <c r="CS46" s="15" t="s">
+      <c r="CS46" s="15">
+        <f t="shared" si="15"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="CT46" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="CT46" s="15">
+      <c r="CU46" s="15">
         <v>1</v>
       </c>
-      <c r="CU46" s="15">
+      <c r="CV46" s="15">
         <v>3</v>
       </c>
-      <c r="CV46" s="19" t="s">
+      <c r="CW46" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="CW46" s="7">
-        <f t="shared" si="15"/>
+      <c r="CX46" s="7">
+        <f t="shared" si="16"/>
         <v>1</v>
-      </c>
-      <c r="CX46">
-        <f t="shared" si="16"/>
-        <v>2.2000000000000002</v>
       </c>
       <c r="CY46">
         <f t="shared" si="17"/>
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="CZ46">
         <f t="shared" si="18"/>
         <v>2.6</v>
       </c>
+      <c r="DA46">
+        <f t="shared" si="19"/>
+        <v>1.925531914893617</v>
+      </c>
     </row>
-    <row r="47" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -13408,7 +13812,9 @@
       </c>
       <c r="CF47" s="12"/>
       <c r="CG47" s="15"/>
-      <c r="CH47" s="15"/>
+      <c r="CH47" s="15">
+        <v>0</v>
+      </c>
       <c r="CI47" s="15"/>
       <c r="CJ47" s="15"/>
       <c r="CK47" s="15">
@@ -13426,19 +13832,19 @@
       <c r="CR47" s="15">
         <v>0</v>
       </c>
-      <c r="CS47" s="15"/>
+      <c r="CS47" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT47" s="15"/>
-      <c r="CU47" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV47" s="19"/>
-      <c r="CW47" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU47" s="15"/>
+      <c r="CV47" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW47" s="19"/>
+      <c r="CX47" s="7">
+        <f t="shared" si="16"/>
         <v>1.0833333333333333</v>
-      </c>
-      <c r="CX47">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY47">
         <f t="shared" si="17"/>
@@ -13448,8 +13854,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -13617,7 +14027,9 @@
       </c>
       <c r="CF48" s="12"/>
       <c r="CG48" s="15"/>
-      <c r="CH48" s="15"/>
+      <c r="CH48" s="15">
+        <v>0</v>
+      </c>
       <c r="CI48" s="15"/>
       <c r="CJ48" s="15"/>
       <c r="CK48" s="15">
@@ -13641,30 +14053,34 @@
       <c r="CR48" s="15">
         <v>0</v>
       </c>
-      <c r="CS48" s="15"/>
+      <c r="CS48" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT48" s="15"/>
-      <c r="CU48" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV48" s="19"/>
-      <c r="CW48" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX48">
+      <c r="CU48" s="15"/>
+      <c r="CV48" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW48" s="19"/>
+      <c r="CX48" s="7">
         <f t="shared" si="16"/>
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="CY48">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="CZ48">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA48">
+        <f t="shared" si="19"/>
+        <v>1.3333333333333335</v>
+      </c>
     </row>
-    <row r="49" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -13832,7 +14248,9 @@
       </c>
       <c r="CF49" s="12"/>
       <c r="CG49" s="15"/>
-      <c r="CH49" s="15"/>
+      <c r="CH49" s="15">
+        <v>0</v>
+      </c>
       <c r="CI49" s="15"/>
       <c r="CJ49" s="15">
         <v>9</v>
@@ -13852,30 +14270,34 @@
       <c r="CR49" s="15">
         <v>0</v>
       </c>
-      <c r="CS49" s="15"/>
+      <c r="CS49" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT49" s="15"/>
-      <c r="CU49" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV49" s="19"/>
-      <c r="CW49" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX49">
+      <c r="CU49" s="15"/>
+      <c r="CV49" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW49" s="19"/>
+      <c r="CX49" s="7">
         <f t="shared" si="16"/>
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="CY49">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="CZ49">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA49">
+        <f t="shared" si="19"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="50" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -14081,32 +14503,36 @@
       <c r="CR50" s="15">
         <v>0</v>
       </c>
-      <c r="CS50" s="15"/>
-      <c r="CT50" s="15">
+      <c r="CS50" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CT50" s="15"/>
+      <c r="CU50" s="15">
         <v>5</v>
       </c>
-      <c r="CU50" s="15">
+      <c r="CV50" s="15">
         <v>3</v>
       </c>
-      <c r="CV50" s="19"/>
-      <c r="CW50" s="7">
-        <f t="shared" si="15"/>
+      <c r="CW50" s="19"/>
+      <c r="CX50" s="7">
+        <f t="shared" si="16"/>
         <v>1.0833333333333335</v>
-      </c>
-      <c r="CX50">
-        <f t="shared" si="16"/>
-        <v>0.6</v>
       </c>
       <c r="CY50">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="CZ50">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
+      <c r="DA50">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="51" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -14261,7 +14687,7 @@
       </c>
       <c r="BA51" s="9"/>
       <c r="BB51" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BC51" s="9">
         <v>26</v>
@@ -14323,7 +14749,7 @@
         <v>207</v>
       </c>
       <c r="BV51" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BW51" s="13">
         <v>11</v>
@@ -14352,19 +14778,21 @@
       </c>
       <c r="CF51" s="12"/>
       <c r="CG51" s="15"/>
-      <c r="CH51" s="15"/>
+      <c r="CH51" s="15">
+        <v>0</v>
+      </c>
       <c r="CI51" s="15"/>
       <c r="CJ51" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="CK51" s="15">
         <v>20</v>
       </c>
       <c r="CL51" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="CM51" s="16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="CN51" s="16">
         <v>23</v>
@@ -14382,36 +14810,46 @@
       <c r="CR51" s="15">
         <v>6</v>
       </c>
-      <c r="CS51" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT51" s="15">
+      <c r="CS51" s="15">
+        <f t="shared" si="15"/>
+        <v>6.3829787234042552</v>
+      </c>
+      <c r="CT51" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU51" s="15">
         <v>22</v>
       </c>
-      <c r="CU51" s="15">
+      <c r="CV51" s="15">
         <v>6</v>
       </c>
-      <c r="CV51" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW51" s="7">
-        <f t="shared" si="15"/>
+      <c r="CW51" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX51" s="7">
+        <f t="shared" si="16"/>
         <v>8.75</v>
-      </c>
-      <c r="CX51">
-        <f t="shared" si="16"/>
-        <v>12.2</v>
       </c>
       <c r="CY51">
         <f t="shared" si="17"/>
-        <v>7.1666666666666661</v>
+        <v>12.2</v>
       </c>
       <c r="CZ51">
         <f t="shared" si="18"/>
         <v>7.1666666666666661</v>
       </c>
+      <c r="DA51">
+        <f t="shared" si="19"/>
+        <v>10.309929078014186</v>
+      </c>
+      <c r="DB51" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="DC51" s="20" t="s">
+        <v>441</v>
+      </c>
     </row>
-    <row r="52" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -14540,7 +14978,7 @@
         <v>3</v>
       </c>
       <c r="BD52" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BE52" s="8">
         <v>16</v>
@@ -14615,7 +15053,9 @@
         <v>207</v>
       </c>
       <c r="CG52" s="15"/>
-      <c r="CH52" s="15"/>
+      <c r="CH52" s="15">
+        <v>0</v>
+      </c>
       <c r="CI52" s="15"/>
       <c r="CJ52" s="15">
         <v>10</v>
@@ -14637,30 +15077,34 @@
       <c r="CR52" s="15">
         <v>0</v>
       </c>
-      <c r="CS52" s="15"/>
+      <c r="CS52" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT52" s="15"/>
-      <c r="CU52" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV52" s="19"/>
-      <c r="CW52" s="7">
-        <f t="shared" si="15"/>
+      <c r="CU52" s="15"/>
+      <c r="CV52" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW52" s="19"/>
+      <c r="CX52" s="7">
+        <f t="shared" si="16"/>
         <v>0.91666666666666674</v>
-      </c>
-      <c r="CX52">
-        <f t="shared" si="16"/>
-        <v>2.4</v>
       </c>
       <c r="CY52">
         <f t="shared" si="17"/>
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="CZ52">
         <f t="shared" si="18"/>
         <v>2.6</v>
       </c>
+      <c r="DA52">
+        <f t="shared" si="19"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="53" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -14871,7 +15315,7 @@
         <v>2</v>
       </c>
       <c r="CL53" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="CM53" s="15">
         <v>11</v>
@@ -14892,36 +15336,40 @@
       <c r="CR53" s="15">
         <v>2</v>
       </c>
-      <c r="CS53" s="15" t="s">
+      <c r="CS53" s="15">
+        <f t="shared" si="15"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="CT53" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="CT53" s="15">
+      <c r="CU53" s="15">
         <v>4</v>
       </c>
-      <c r="CU53" s="15">
+      <c r="CV53" s="15">
         <v>3</v>
       </c>
-      <c r="CV53" s="19" t="s">
+      <c r="CW53" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="CW53" s="7">
-        <f t="shared" si="15"/>
+      <c r="CX53" s="7">
+        <f t="shared" si="16"/>
         <v>0.5</v>
-      </c>
-      <c r="CX53">
-        <f t="shared" si="16"/>
-        <v>0.6</v>
       </c>
       <c r="CY53">
         <f t="shared" si="17"/>
-        <v>2.2666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="CZ53">
         <f t="shared" si="18"/>
         <v>2.2666666666666666</v>
       </c>
+      <c r="DA53">
+        <f t="shared" si="19"/>
+        <v>2.3255319148936171</v>
+      </c>
     </row>
-    <row r="54" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -15127,32 +15575,36 @@
       <c r="CR54" s="15">
         <v>2</v>
       </c>
-      <c r="CS54" s="15"/>
-      <c r="CT54" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="CU54" s="15">
+      <c r="CS54" s="15">
+        <f t="shared" si="15"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="CT54" s="15"/>
+      <c r="CU54" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="CV54" s="15">
         <v>9</v>
       </c>
-      <c r="CV54" s="19"/>
-      <c r="CW54" s="7">
-        <f t="shared" si="15"/>
+      <c r="CW54" s="19"/>
+      <c r="CX54" s="7">
+        <f t="shared" si="16"/>
         <v>0.58333333333333326</v>
-      </c>
-      <c r="CX54">
-        <f t="shared" si="16"/>
-        <v>2.4</v>
       </c>
       <c r="CY54">
         <f t="shared" si="17"/>
-        <v>1.1666666666666665</v>
+        <v>2.4</v>
       </c>
       <c r="CZ54">
         <f t="shared" si="18"/>
         <v>1.1666666666666665</v>
       </c>
+      <c r="DA54">
+        <f t="shared" si="19"/>
+        <v>2.8255319148936171</v>
+      </c>
     </row>
-    <row r="55" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -15312,7 +15764,7 @@
       </c>
       <c r="CF55" s="12"/>
       <c r="CG55" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="CH55" s="15">
         <v>2</v>
@@ -15336,17 +15788,17 @@
       <c r="CR55" s="15">
         <v>0</v>
       </c>
-      <c r="CS55" s="15"/>
+      <c r="CS55" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT55" s="15"/>
-      <c r="CU55" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV55" s="19"/>
-      <c r="CW55" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX55">
+      <c r="CU55" s="15"/>
+      <c r="CV55" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW55" s="19"/>
+      <c r="CX55" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -15358,8 +15810,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA55">
+        <f t="shared" si="19"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="56" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -15579,36 +16035,46 @@
       <c r="CR56" s="15">
         <v>10</v>
       </c>
-      <c r="CS56" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT56" s="15">
+      <c r="CS56" s="15">
+        <f t="shared" si="15"/>
+        <v>10.638297872340425</v>
+      </c>
+      <c r="CT56" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU56" s="15">
         <v>24</v>
       </c>
-      <c r="CU56" s="15">
+      <c r="CV56" s="15">
         <v>6</v>
       </c>
-      <c r="CV56" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW56" s="7">
-        <f t="shared" si="15"/>
+      <c r="CW56" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX56" s="7">
+        <f t="shared" si="16"/>
         <v>1.6666666666666665</v>
-      </c>
-      <c r="CX56">
-        <f t="shared" si="16"/>
-        <v>2.8</v>
       </c>
       <c r="CY56">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="CZ56">
         <f t="shared" si="18"/>
         <v>7</v>
       </c>
+      <c r="DA56">
+        <f t="shared" si="19"/>
+        <v>5.3276595744680844</v>
+      </c>
+      <c r="DB56" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="DC56" s="20" t="s">
+        <v>442</v>
+      </c>
     </row>
-    <row r="57" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -15795,30 +16261,30 @@
       </c>
       <c r="CP57" s="15"/>
       <c r="CQ57" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="CR57" s="15">
         <v>7</v>
       </c>
-      <c r="CS57" s="15" t="s">
-        <v>207</v>
+      <c r="CS57" s="15">
+        <f t="shared" si="15"/>
+        <v>7.4468085106382977</v>
       </c>
       <c r="CT57" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="CU57" s="15">
+        <v>207</v>
+      </c>
+      <c r="CU57" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="CV57" s="15">
         <v>9</v>
       </c>
-      <c r="CV57" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW57" s="7">
-        <f t="shared" si="15"/>
+      <c r="CW57" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX57" s="7">
+        <f t="shared" si="16"/>
         <v>0.33333333333333337</v>
-      </c>
-      <c r="CX57">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY57">
         <f t="shared" si="17"/>
@@ -15828,8 +16294,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA57">
+        <f t="shared" si="19"/>
+        <v>3.8893617021276596</v>
+      </c>
     </row>
-    <row r="58" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -16013,17 +16483,17 @@
       <c r="CR58" s="15">
         <v>2</v>
       </c>
-      <c r="CS58" s="15"/>
+      <c r="CS58" s="15">
+        <f t="shared" si="15"/>
+        <v>2.1276595744680851</v>
+      </c>
       <c r="CT58" s="15"/>
-      <c r="CU58" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV58" s="19"/>
-      <c r="CW58" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX58">
+      <c r="CU58" s="15"/>
+      <c r="CV58" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW58" s="19"/>
+      <c r="CX58" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -16035,8 +16505,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA58">
+        <f t="shared" si="19"/>
+        <v>0.82553191489361699</v>
+      </c>
     </row>
-    <row r="59" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -16196,7 +16670,9 @@
       </c>
       <c r="CF59" s="12"/>
       <c r="CG59" s="15"/>
-      <c r="CH59" s="15"/>
+      <c r="CH59" s="15">
+        <v>0</v>
+      </c>
       <c r="CI59" s="15"/>
       <c r="CJ59" s="15"/>
       <c r="CK59" s="15">
@@ -16216,23 +16692,23 @@
       <c r="CR59" s="15">
         <v>2</v>
       </c>
-      <c r="CS59" s="15" t="s">
-        <v>207</v>
+      <c r="CS59" s="15">
+        <f t="shared" si="15"/>
+        <v>2.1276595744680851</v>
       </c>
       <c r="CT59" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="CU59" s="15">
+        <v>207</v>
+      </c>
+      <c r="CU59" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="CV59" s="15">
         <v>9</v>
       </c>
-      <c r="CV59" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW59" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX59">
+      <c r="CW59" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX59" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -16244,8 +16720,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA59">
+        <f t="shared" si="19"/>
+        <v>2.225531914893617</v>
+      </c>
     </row>
-    <row r="60" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -16415,7 +16895,9 @@
       </c>
       <c r="CF60" s="12"/>
       <c r="CG60" s="15"/>
-      <c r="CH60" s="15"/>
+      <c r="CH60" s="15">
+        <v>0</v>
+      </c>
       <c r="CI60" s="15"/>
       <c r="CJ60" s="15"/>
       <c r="CK60" s="15">
@@ -16435,32 +16917,36 @@
       <c r="CR60" s="15">
         <v>3</v>
       </c>
-      <c r="CS60" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="CT60" s="15"/>
-      <c r="CU60" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV60" s="19"/>
-      <c r="CW60" s="7">
+      <c r="CS60" s="15">
         <f t="shared" si="15"/>
+        <v>3.1914893617021276</v>
+      </c>
+      <c r="CT60" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU60" s="15"/>
+      <c r="CV60" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW60" s="19"/>
+      <c r="CX60" s="7">
+        <f t="shared" si="16"/>
         <v>0.25</v>
-      </c>
-      <c r="CX60">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY60">
         <f t="shared" si="17"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CZ60">
         <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
+      <c r="DA60">
+        <f t="shared" si="19"/>
+        <v>0.63829787234042556</v>
+      </c>
     </row>
-    <row r="61" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -16644,17 +17130,17 @@
       <c r="CR61" s="15">
         <v>0</v>
       </c>
-      <c r="CS61" s="15"/>
+      <c r="CS61" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT61" s="15"/>
-      <c r="CU61" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV61" s="19"/>
-      <c r="CW61" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX61">
+      <c r="CU61" s="15"/>
+      <c r="CV61" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW61" s="19"/>
+      <c r="CX61" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -16666,8 +17152,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA61">
+        <f t="shared" si="19"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="62" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -16851,17 +17341,17 @@
       <c r="CR62" s="15">
         <v>0</v>
       </c>
-      <c r="CS62" s="15"/>
+      <c r="CS62" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT62" s="15"/>
-      <c r="CU62" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV62" s="19"/>
-      <c r="CW62" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX62">
+      <c r="CU62" s="15"/>
+      <c r="CV62" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW62" s="19"/>
+      <c r="CX62" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -16873,8 +17363,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA62">
+        <f t="shared" si="19"/>
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="63" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -17058,21 +17552,21 @@
       <c r="CR63" s="15">
         <v>0</v>
       </c>
-      <c r="CS63" s="15"/>
-      <c r="CT63" s="15">
+      <c r="CS63" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CT63" s="15"/>
+      <c r="CU63" s="15">
         <v>26</v>
       </c>
-      <c r="CU63" s="15">
+      <c r="CV63" s="15">
         <v>10</v>
       </c>
-      <c r="CV63" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW63" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX63">
+      <c r="CW63" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX63" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -17084,8 +17578,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA63">
+        <f t="shared" si="19"/>
+        <v>4.4000000000000004</v>
+      </c>
     </row>
-    <row r="64" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -17245,7 +17743,9 @@
       </c>
       <c r="CF64" s="12"/>
       <c r="CG64" s="15"/>
-      <c r="CH64" s="15"/>
+      <c r="CH64" s="15">
+        <v>0</v>
+      </c>
       <c r="CI64" s="15"/>
       <c r="CJ64" s="15"/>
       <c r="CK64" s="15">
@@ -17263,17 +17763,17 @@
       <c r="CR64" s="15">
         <v>0</v>
       </c>
-      <c r="CS64" s="15"/>
+      <c r="CS64" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT64" s="15"/>
-      <c r="CU64" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV64" s="19"/>
-      <c r="CW64" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX64">
+      <c r="CU64" s="15"/>
+      <c r="CV64" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW64" s="19"/>
+      <c r="CX64" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -17285,8 +17785,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA64">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -17446,7 +17950,9 @@
       </c>
       <c r="CF65" s="12"/>
       <c r="CG65" s="15"/>
-      <c r="CH65" s="15"/>
+      <c r="CH65" s="15">
+        <v>0</v>
+      </c>
       <c r="CI65" s="15"/>
       <c r="CJ65" s="15"/>
       <c r="CK65" s="15">
@@ -17464,17 +17970,17 @@
       <c r="CR65" s="15">
         <v>0</v>
       </c>
-      <c r="CS65" s="15"/>
+      <c r="CS65" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT65" s="15"/>
-      <c r="CU65" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV65" s="19"/>
-      <c r="CW65" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX65">
+      <c r="CU65" s="15"/>
+      <c r="CV65" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW65" s="19"/>
+      <c r="CX65" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -17486,8 +17992,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA65">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -17647,7 +18157,9 @@
       </c>
       <c r="CF66" s="12"/>
       <c r="CG66" s="15"/>
-      <c r="CH66" s="15"/>
+      <c r="CH66" s="15">
+        <v>0</v>
+      </c>
       <c r="CI66" s="15"/>
       <c r="CJ66" s="15"/>
       <c r="CK66" s="15">
@@ -17665,17 +18177,17 @@
       <c r="CR66" s="15">
         <v>0</v>
       </c>
-      <c r="CS66" s="15"/>
+      <c r="CS66" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="CT66" s="15"/>
-      <c r="CU66" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV66" s="19"/>
-      <c r="CW66" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="CX66">
+      <c r="CU66" s="15"/>
+      <c r="CV66" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW66" s="19"/>
+      <c r="CX66" s="7">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
@@ -17687,8 +18199,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA66">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -17854,7 +18370,9 @@
       </c>
       <c r="CF67" s="12"/>
       <c r="CG67" s="15"/>
-      <c r="CH67" s="15"/>
+      <c r="CH67" s="15">
+        <v>0</v>
+      </c>
       <c r="CI67" s="15"/>
       <c r="CJ67" s="15"/>
       <c r="CK67" s="15">
@@ -17872,23 +18390,23 @@
       <c r="CR67" s="15">
         <v>0</v>
       </c>
-      <c r="CS67" s="15"/>
-      <c r="CT67" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="CU67" s="15">
+      <c r="CS67" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CT67" s="15"/>
+      <c r="CU67" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="CV67" s="15">
         <v>6</v>
       </c>
-      <c r="CV67" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW67" s="7">
-        <f t="shared" si="15"/>
+      <c r="CW67" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX67" s="7">
+        <f t="shared" si="16"/>
         <v>0.25</v>
-      </c>
-      <c r="CX67">
-        <f t="shared" si="16"/>
-        <v>0</v>
       </c>
       <c r="CY67">
         <f t="shared" si="17"/>
@@ -17898,8 +18416,12 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
+      <c r="DA67">
+        <f t="shared" si="19"/>
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="68" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -17933,49 +18455,49 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
-        <f t="shared" ref="M68:M78" si="19">IF(L68="",0,L68/120*100)</f>
+        <f t="shared" ref="M68:M78" si="20">IF(L68="",0,L68/120*100)</f>
         <v>0</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1">
-        <f t="shared" ref="Q68:Q78" si="20">IF(P68="",0,P68/120*100)</f>
+        <f t="shared" ref="Q68:Q78" si="21">IF(P68="",0,P68/120*100)</f>
         <v>0</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1">
-        <f t="shared" ref="U68:U78" si="21">IF(T68="",0,T68/120*100)</f>
+        <f t="shared" ref="U68:U78" si="22">IF(T68="",0,T68/120*100)</f>
         <v>0</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1">
-        <f t="shared" ref="Y68:Y78" si="22">IF(X68="",0,X68/120*100)</f>
+        <f t="shared" ref="Y68:Y78" si="23">IF(X68="",0,X68/120*100)</f>
         <v>0</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1">
-        <f t="shared" ref="AC68:AC78" si="23">IF(AB68="",0,AB68/120*100)</f>
+        <f t="shared" ref="AC68:AC78" si="24">IF(AB68="",0,AB68/120*100)</f>
         <v>0</v>
       </c>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
       <c r="AG68" s="1">
-        <f t="shared" ref="AG68:AG73" si="24">IF(AF68="",0,AF68/120*100)</f>
+        <f t="shared" ref="AG68:AG78" si="25">IF(AF68="",0,AF68/120*100)</f>
         <v>0</v>
       </c>
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1">
-        <f t="shared" ref="AK68:AK72" si="25">IF(AJ68="",0,AJ68/120*100)</f>
+        <f t="shared" ref="AK68:AK78" si="26">IF(AJ68="",0,AJ68/120*100)</f>
         <v>0</v>
       </c>
       <c r="AL68" s="1"/>
@@ -17986,7 +18508,7 @@
         <v>12</v>
       </c>
       <c r="AO68" s="1">
-        <f t="shared" ref="AO68:AO73" si="26">IF(AN68="",0,AN68/120*100)</f>
+        <f t="shared" ref="AO68:AO78" si="27">IF(AN68="",0,AN68/120*100)</f>
         <v>10</v>
       </c>
       <c r="AP68" s="1" t="s">
@@ -17995,14 +18517,14 @@
       <c r="AQ68" s="1"/>
       <c r="AR68" s="1"/>
       <c r="AS68" s="1">
-        <f t="shared" ref="AS68:AS73" si="27">IF(AR68="",0,AR68/120*100)</f>
+        <f t="shared" ref="AS68:AS78" si="28">IF(AR68="",0,AR68/120*100)</f>
         <v>0</v>
       </c>
       <c r="AT68" s="1"/>
       <c r="AU68" s="1"/>
       <c r="AV68" s="1"/>
       <c r="AW68" s="1">
-        <f t="shared" ref="AW68:AW73" si="28">IF(AV68="",0,AV68/120*100)</f>
+        <f t="shared" ref="AW68:AW78" si="29">IF(AV68="",0,AV68/120*100)</f>
         <v>0</v>
       </c>
       <c r="AX68" s="1"/>
@@ -18034,7 +18556,7 @@
       <c r="BN68" s="12"/>
       <c r="BO68" s="12"/>
       <c r="BP68" s="12">
-        <f t="shared" ref="BP68:BP74" si="29">IF(BO68="",0,BO68/120*100)</f>
+        <f t="shared" ref="BP68:BP74" si="30">IF(BO68="",0,BO68/120*100)</f>
         <v>0</v>
       </c>
       <c r="BQ68" s="12"/>
@@ -18045,7 +18567,7 @@
         <v>3</v>
       </c>
       <c r="BT68" s="12">
-        <f t="shared" ref="BT68:BT74" si="30">IF(BS68="",0,BS68/120*100)</f>
+        <f t="shared" ref="BT68:BT74" si="31">IF(BS68="",0,BS68/120*100)</f>
         <v>2.5</v>
       </c>
       <c r="BU68" s="12" t="s">
@@ -18054,7 +18576,7 @@
       <c r="BV68" s="12"/>
       <c r="BW68" s="12"/>
       <c r="BX68" s="12">
-        <f t="shared" ref="BX68:BX73" si="31">IF(BW68="",0,BW68/120*100)</f>
+        <f t="shared" ref="BX68:BX73" si="32">IF(BW68="",0,BW68/120*100)</f>
         <v>0</v>
       </c>
       <c r="BY68" s="12"/>
@@ -18066,12 +18588,14 @@
       <c r="CC68" s="12"/>
       <c r="CD68" s="12"/>
       <c r="CE68" s="12">
-        <f t="shared" ref="CE68:CE74" si="32">IF(CD68="",0,CD68/120*100)</f>
+        <f t="shared" ref="CE68:CE74" si="33">IF(CD68="",0,CD68/120*100)</f>
         <v>0</v>
       </c>
       <c r="CF68" s="12"/>
       <c r="CG68" s="15"/>
-      <c r="CH68" s="15"/>
+      <c r="CH68" s="15">
+        <v>0</v>
+      </c>
       <c r="CI68" s="15"/>
       <c r="CJ68" s="15"/>
       <c r="CK68" s="15">
@@ -18081,7 +18605,7 @@
       <c r="CM68" s="15"/>
       <c r="CN68" s="15"/>
       <c r="CO68" s="15">
-        <f t="shared" ref="CO68:CO73" si="33">IF(CN68="",0,CN68/120*100)</f>
+        <f t="shared" ref="CO68:CO73" si="34">IF(CN68="",0,CN68/120*100)</f>
         <v>0</v>
       </c>
       <c r="CP68" s="15"/>
@@ -18089,34 +18613,38 @@
       <c r="CR68" s="15">
         <v>0</v>
       </c>
-      <c r="CS68" s="15"/>
-      <c r="CT68" s="15">
+      <c r="CS68" s="15">
+        <f t="shared" ref="CS68:CS78" si="35">CR68/94*100</f>
+        <v>0</v>
+      </c>
+      <c r="CT68" s="15"/>
+      <c r="CU68" s="15">
         <v>7</v>
       </c>
-      <c r="CU68" s="15">
+      <c r="CV68" s="15">
         <v>3</v>
       </c>
-      <c r="CV68" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW68" s="7">
-        <f t="shared" ref="CW68:CW78" si="34">IFERROR(AVERAGE(M68,Q68,U68,Y68,AC68,AG68,AK68,AO68,AS68,AW68),0)</f>
+      <c r="CW68" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX68" s="7">
+        <f t="shared" ref="CX68:CX78" si="36">IFERROR(AVERAGE(M68,Q68,U68,Y68,AC68,AG68,AK68,AO68,AS68,AW68),0)</f>
         <v>1</v>
       </c>
-      <c r="CX68">
-        <f t="shared" ref="CX68:CX78" si="35">IFERROR(AVERAGE(AZ68,BC68,BF68,BI68,BL68),0)</f>
-        <v>0</v>
-      </c>
       <c r="CY68">
-        <f t="shared" ref="CY68:CY78" si="36">IFERROR(AVERAGE(BP68,BT68,BX68,CA68,CE68),0)</f>
+        <f t="shared" ref="CY68:CY78" si="37">IFERROR(AVERAGE(AZ68,BC68,BF68,BI68,BL68),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ68">
+        <f t="shared" ref="CZ68:CZ78" si="38">IFERROR(AVERAGE(BP68,BT68,BX68,CA68,CE68),0)</f>
         <v>0.5</v>
       </c>
-      <c r="CZ68">
-        <f t="shared" ref="CZ68:CZ78" si="37">IFERROR(AVERAGE(BP68,BT68,BX68,CA68,CE68),0)</f>
-        <v>0.5</v>
+      <c r="DA68">
+        <f t="shared" ref="DA68:DA78" si="39">IFERROR(AVERAGE(CH68,CK68,CO68,CS68,CV68),0)</f>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="69" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -18150,70 +18678,70 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
       <c r="AG69" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
       <c r="AO69" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP69" s="1"/>
       <c r="AQ69" s="1"/>
       <c r="AR69" s="1"/>
       <c r="AS69" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT69" s="1"/>
       <c r="AU69" s="1"/>
       <c r="AV69" s="1"/>
       <c r="AW69" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AX69" s="1"/>
@@ -18245,21 +18773,21 @@
       <c r="BN69" s="12"/>
       <c r="BO69" s="12"/>
       <c r="BP69" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BQ69" s="12"/>
       <c r="BR69" s="12"/>
       <c r="BS69" s="12"/>
       <c r="BT69" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BU69" s="12"/>
       <c r="BV69" s="12"/>
       <c r="BW69" s="12"/>
       <c r="BX69" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BY69" s="12"/>
@@ -18271,12 +18799,14 @@
       <c r="CC69" s="12"/>
       <c r="CD69" s="12"/>
       <c r="CE69" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CF69" s="12"/>
       <c r="CG69" s="15"/>
-      <c r="CH69" s="15"/>
+      <c r="CH69" s="15">
+        <v>0</v>
+      </c>
       <c r="CI69" s="15"/>
       <c r="CJ69" s="15"/>
       <c r="CK69" s="15">
@@ -18286,7 +18816,7 @@
       <c r="CM69" s="15"/>
       <c r="CN69" s="15"/>
       <c r="CO69" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CP69" s="15"/>
@@ -18294,34 +18824,38 @@
       <c r="CR69" s="15">
         <v>0</v>
       </c>
-      <c r="CS69" s="15"/>
-      <c r="CT69" s="15">
+      <c r="CS69" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CT69" s="15"/>
+      <c r="CU69" s="15">
         <v>18</v>
       </c>
-      <c r="CU69" s="15">
+      <c r="CV69" s="15">
         <v>3</v>
       </c>
-      <c r="CV69" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW69" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="CX69">
-        <f t="shared" si="35"/>
+      <c r="CW69" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX69" s="7">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="CY69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="CZ69">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DA69">
+        <f t="shared" si="39"/>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="70" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -18355,14 +18889,14 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R70" s="1"/>
@@ -18373,7 +18907,7 @@
         <v>4</v>
       </c>
       <c r="U70" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="V70" s="6" t="s">
@@ -18382,28 +18916,28 @@
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
       <c r="AG70" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AL70" s="1"/>
@@ -18414,7 +18948,7 @@
         <v>4</v>
       </c>
       <c r="AO70" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AP70" s="1" t="s">
@@ -18423,14 +18957,14 @@
       <c r="AQ70" s="1"/>
       <c r="AR70" s="1"/>
       <c r="AS70" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT70" s="1"/>
       <c r="AU70" s="1"/>
       <c r="AV70" s="1"/>
       <c r="AW70" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AX70" s="1"/>
@@ -18462,21 +18996,21 @@
       <c r="BN70" s="12"/>
       <c r="BO70" s="12"/>
       <c r="BP70" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BQ70" s="12"/>
       <c r="BR70" s="12"/>
       <c r="BS70" s="12"/>
       <c r="BT70" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BU70" s="12"/>
       <c r="BV70" s="13"/>
       <c r="BW70" s="13"/>
       <c r="BX70" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BY70" s="13"/>
@@ -18488,12 +19022,14 @@
       <c r="CC70" s="12"/>
       <c r="CD70" s="12"/>
       <c r="CE70" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CF70" s="12"/>
       <c r="CG70" s="15"/>
-      <c r="CH70" s="15"/>
+      <c r="CH70" s="15">
+        <v>0</v>
+      </c>
       <c r="CI70" s="15"/>
       <c r="CJ70" s="15"/>
       <c r="CK70" s="15">
@@ -18503,7 +19039,7 @@
       <c r="CM70" s="16"/>
       <c r="CN70" s="16"/>
       <c r="CO70" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CP70" s="16"/>
@@ -18511,34 +19047,38 @@
       <c r="CR70" s="15">
         <v>0</v>
       </c>
-      <c r="CS70" s="15"/>
-      <c r="CT70" s="15">
+      <c r="CS70" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CT70" s="15"/>
+      <c r="CU70" s="15">
         <v>21</v>
       </c>
-      <c r="CU70" s="15">
+      <c r="CV70" s="15">
         <v>6</v>
       </c>
-      <c r="CV70" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW70" s="7">
-        <f t="shared" si="34"/>
+      <c r="CW70" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX70" s="7">
+        <f t="shared" si="36"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="CX70">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
       <c r="CY70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="CZ70">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DA70">
+        <f t="shared" si="39"/>
+        <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -18572,49 +19112,49 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
       <c r="AG71" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AL71" s="1"/>
@@ -18625,7 +19165,7 @@
         <v>12</v>
       </c>
       <c r="AO71" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="AP71" s="1" t="s">
@@ -18634,14 +19174,14 @@
       <c r="AQ71" s="1"/>
       <c r="AR71" s="1"/>
       <c r="AS71" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT71" s="1"/>
       <c r="AU71" s="1"/>
       <c r="AV71" s="1"/>
       <c r="AW71" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AX71" s="1"/>
@@ -18673,21 +19213,21 @@
       <c r="BN71" s="12"/>
       <c r="BO71" s="12"/>
       <c r="BP71" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BQ71" s="12"/>
       <c r="BR71" s="12"/>
       <c r="BS71" s="12"/>
       <c r="BT71" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BU71" s="12"/>
       <c r="BV71" s="12"/>
       <c r="BW71" s="12"/>
       <c r="BX71" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BY71" s="12"/>
@@ -18699,12 +19239,14 @@
       <c r="CC71" s="12"/>
       <c r="CD71" s="12"/>
       <c r="CE71" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CF71" s="12"/>
       <c r="CG71" s="15"/>
-      <c r="CH71" s="15"/>
+      <c r="CH71" s="15">
+        <v>0</v>
+      </c>
       <c r="CI71" s="15"/>
       <c r="CJ71" s="15"/>
       <c r="CK71" s="15">
@@ -18714,7 +19256,7 @@
       <c r="CM71" s="15"/>
       <c r="CN71" s="15"/>
       <c r="CO71" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CP71" s="15"/>
@@ -18722,34 +19264,38 @@
       <c r="CR71" s="15">
         <v>0</v>
       </c>
-      <c r="CS71" s="15"/>
-      <c r="CT71" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="CU71" s="15">
+      <c r="CS71" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CT71" s="15"/>
+      <c r="CU71" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="CV71" s="15">
         <v>12</v>
       </c>
-      <c r="CV71" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="CW71" s="7">
-        <f t="shared" si="34"/>
+      <c r="CW71" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="CX71" s="7">
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="CX71">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
       <c r="CY71">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="CZ71">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DA71">
+        <f t="shared" si="39"/>
+        <v>2.4</v>
       </c>
     </row>
-    <row r="72" spans="1:104" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:107" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -18783,70 +19329,70 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
       <c r="AG72" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
       <c r="AN72" s="1"/>
       <c r="AO72" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP72" s="1"/>
       <c r="AQ72" s="1"/>
       <c r="AR72" s="1"/>
       <c r="AS72" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT72" s="1"/>
       <c r="AU72" s="1"/>
       <c r="AV72" s="1"/>
       <c r="AW72" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AX72" s="1"/>
@@ -18878,21 +19424,21 @@
       <c r="BN72" s="12"/>
       <c r="BO72" s="12"/>
       <c r="BP72" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BQ72" s="12"/>
       <c r="BR72" s="12"/>
       <c r="BS72" s="12"/>
       <c r="BT72" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BU72" s="12"/>
       <c r="BV72" s="12"/>
       <c r="BW72" s="12"/>
       <c r="BX72" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BY72" s="12"/>
@@ -18904,12 +19450,14 @@
       <c r="CC72" s="12"/>
       <c r="CD72" s="12"/>
       <c r="CE72" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CF72" s="12"/>
       <c r="CG72" s="15"/>
-      <c r="CH72" s="15"/>
+      <c r="CH72" s="15">
+        <v>0</v>
+      </c>
       <c r="CI72" s="15"/>
       <c r="CJ72" s="15"/>
       <c r="CK72" s="15">
@@ -18919,7 +19467,7 @@
       <c r="CM72" s="15"/>
       <c r="CN72" s="15"/>
       <c r="CO72" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CP72" s="15"/>
@@ -18927,124 +19475,133 @@
       <c r="CR72" s="15">
         <v>0</v>
       </c>
-      <c r="CS72" s="15"/>
+      <c r="CS72" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="CT72" s="15"/>
-      <c r="CU72" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV72" s="19"/>
-      <c r="CW72" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="CX72">
-        <f t="shared" si="35"/>
+      <c r="CU72" s="15"/>
+      <c r="CV72" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW72" s="19"/>
+      <c r="CX72" s="7">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="CY72">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="CZ72">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DA72">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DB72" s="20"/>
+      <c r="DC72" s="21"/>
     </row>
-    <row r="73" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C73" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" t="s">
+        <v>387</v>
+      </c>
+      <c r="E73" t="s">
+        <v>388</v>
+      </c>
+      <c r="F73" t="s">
+        <v>389</v>
+      </c>
+      <c r="G73" t="s">
+        <v>390</v>
+      </c>
+      <c r="H73" t="s">
+        <v>391</v>
+      </c>
+      <c r="I73" t="s">
+        <v>392</v>
+      </c>
+      <c r="J73" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="C73" t="s">
-        <v>387</v>
-      </c>
-      <c r="D73" t="s">
-        <v>388</v>
-      </c>
-      <c r="E73" t="s">
-        <v>389</v>
-      </c>
-      <c r="F73" t="s">
-        <v>390</v>
-      </c>
-      <c r="G73" t="s">
-        <v>391</v>
-      </c>
-      <c r="H73" t="s">
-        <v>392</v>
-      </c>
-      <c r="I73" t="s">
-        <v>393</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
+      <c r="AK73" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
       <c r="AO73" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AP73" s="1"/>
       <c r="AQ73" s="1"/>
       <c r="AR73" s="1"/>
       <c r="AS73" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT73" s="1"/>
       <c r="AU73" s="1"/>
       <c r="AV73" s="1"/>
       <c r="AW73" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AX73" s="1"/>
@@ -19080,14 +19637,14 @@
       <c r="BN73" s="12"/>
       <c r="BO73" s="12"/>
       <c r="BP73" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BQ73" s="12"/>
       <c r="BR73" s="12"/>
       <c r="BS73" s="12"/>
       <c r="BT73" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BU73" s="12"/>
@@ -19098,7 +19655,7 @@
         <v>3</v>
       </c>
       <c r="BX73" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.5</v>
       </c>
       <c r="BY73" s="12" t="s">
@@ -19112,12 +19669,14 @@
       <c r="CC73" s="12"/>
       <c r="CD73" s="12"/>
       <c r="CE73" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CF73" s="12"/>
       <c r="CG73" s="15"/>
-      <c r="CH73" s="15"/>
+      <c r="CH73" s="15">
+        <v>0</v>
+      </c>
       <c r="CI73" s="15"/>
       <c r="CJ73" s="15"/>
       <c r="CK73" s="15">
@@ -19127,7 +19686,7 @@
       <c r="CM73" s="15"/>
       <c r="CN73" s="15"/>
       <c r="CO73" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CP73" s="15"/>
@@ -19135,98 +19694,107 @@
       <c r="CR73" s="15">
         <v>0</v>
       </c>
-      <c r="CS73" s="15"/>
+      <c r="CS73" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="CT73" s="15"/>
-      <c r="CU73" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV73" s="15"/>
-      <c r="CW73" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="CX73">
-        <f t="shared" si="35"/>
+      <c r="CU73" s="15"/>
+      <c r="CV73" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW73" s="15"/>
+      <c r="CX73" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CY73">
+        <f t="shared" si="37"/>
         <v>2.6</v>
       </c>
-      <c r="CY73">
-        <f t="shared" si="36"/>
+      <c r="CZ73">
+        <f t="shared" si="38"/>
         <v>0.5</v>
       </c>
-      <c r="CZ73">
-        <f t="shared" si="37"/>
-        <v>0.5</v>
-      </c>
+      <c r="DA73">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DB73" s="20"/>
+      <c r="DC73" s="22"/>
     </row>
-    <row r="74" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C74" t="s">
+        <v>386</v>
+      </c>
+      <c r="D74" t="s">
         <v>387</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>388</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>389</v>
       </c>
-      <c r="F74" t="s">
-        <v>390</v>
-      </c>
       <c r="G74" t="s">
+        <v>396</v>
+      </c>
+      <c r="H74" t="s">
+        <v>395</v>
+      </c>
+      <c r="I74" t="s">
         <v>397</v>
       </c>
-      <c r="H74" t="s">
-        <v>396</v>
-      </c>
-      <c r="I74" t="s">
-        <v>398</v>
-      </c>
       <c r="J74" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V74" s="1"/>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
-      <c r="AG74" s="1"/>
+      <c r="AG74" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="AH74" s="1"/>
       <c r="AI74" s="1">
         <v>2</v>
@@ -19235,7 +19803,7 @@
         <v>3</v>
       </c>
       <c r="AK74" s="1">
-        <f>IF(AJ74="","",AJ74/120*100)</f>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="AL74" s="1" t="s">
@@ -19243,15 +19811,24 @@
       </c>
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
-      <c r="AO74" s="1"/>
+      <c r="AO74" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="AP74" s="1"/>
       <c r="AQ74" s="1"/>
       <c r="AR74" s="1"/>
-      <c r="AS74" s="1"/>
+      <c r="AS74" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="AT74" s="1"/>
       <c r="AU74" s="1"/>
       <c r="AV74" s="1"/>
-      <c r="AW74" s="1"/>
+      <c r="AW74" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1">
@@ -19281,14 +19858,14 @@
       <c r="BN74" s="12"/>
       <c r="BO74" s="12"/>
       <c r="BP74" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BQ74" s="12"/>
       <c r="BR74" s="12"/>
       <c r="BS74" s="12"/>
       <c r="BT74" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BU74" s="12"/>
@@ -19306,12 +19883,14 @@
       <c r="CC74" s="12"/>
       <c r="CD74" s="12"/>
       <c r="CE74" s="12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="CF74" s="12"/>
       <c r="CG74" s="15"/>
-      <c r="CH74" s="15"/>
+      <c r="CH74" s="15">
+        <v>0</v>
+      </c>
       <c r="CI74" s="15"/>
       <c r="CJ74" s="15"/>
       <c r="CK74" s="15">
@@ -19328,114 +19907,135 @@
       <c r="CR74" s="15">
         <v>0</v>
       </c>
-      <c r="CS74" s="15"/>
+      <c r="CS74" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="CT74" s="15"/>
-      <c r="CU74" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV74" s="15"/>
-      <c r="CW74" s="7">
-        <f t="shared" si="34"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="CX74">
-        <f t="shared" si="35"/>
-        <v>0</v>
+      <c r="CU74" s="15"/>
+      <c r="CV74" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW74" s="15"/>
+      <c r="CX74" s="7">
+        <f t="shared" si="36"/>
+        <v>0.25</v>
       </c>
       <c r="CY74">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="CZ74">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DA74">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DB74" s="20"/>
+      <c r="DC74" s="22"/>
     </row>
-    <row r="75" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C75" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" t="s">
         <v>399</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>400</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>401</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>402</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>403</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>404</v>
       </c>
-      <c r="I75" t="s">
-        <v>405</v>
-      </c>
       <c r="J75" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V75" s="1"/>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
-      <c r="AG75" s="1"/>
+      <c r="AG75" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
-      <c r="AK75" s="1"/>
+      <c r="AK75" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
-      <c r="AO75" s="1"/>
+      <c r="AO75" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="AP75" s="1"/>
       <c r="AQ75" s="1"/>
       <c r="AR75" s="1"/>
-      <c r="AS75" s="1"/>
+      <c r="AS75" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="AT75" s="1"/>
       <c r="AU75" s="1"/>
       <c r="AV75" s="1"/>
-      <c r="AW75" s="1"/>
+      <c r="AW75" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="AX75" s="1"/>
       <c r="AY75" s="9" t="s">
         <v>283</v>
@@ -19496,7 +20096,9 @@
       </c>
       <c r="CF75" s="12"/>
       <c r="CG75" s="15"/>
-      <c r="CH75" s="15"/>
+      <c r="CH75" s="15">
+        <v>0</v>
+      </c>
       <c r="CI75" s="15"/>
       <c r="CJ75" s="15"/>
       <c r="CK75" s="15">
@@ -19513,114 +20115,135 @@
       <c r="CR75" s="15">
         <v>0</v>
       </c>
-      <c r="CS75" s="15"/>
+      <c r="CS75" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="CT75" s="15"/>
-      <c r="CU75" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV75" s="15"/>
-      <c r="CW75" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="CX75">
-        <f t="shared" si="35"/>
+      <c r="CU75" s="15"/>
+      <c r="CV75" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW75" s="15"/>
+      <c r="CX75" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CY75">
+        <f t="shared" si="37"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="CY75">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="CZ75">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DA75">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DB75" s="20"/>
+      <c r="DC75" s="22"/>
     </row>
-    <row r="76" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C76" t="s">
+        <v>386</v>
+      </c>
+      <c r="D76" t="s">
         <v>387</v>
       </c>
-      <c r="D76" t="s">
-        <v>388</v>
-      </c>
       <c r="E76" t="s">
+        <v>405</v>
+      </c>
+      <c r="F76" t="s">
         <v>406</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>407</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>408</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>409</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>410</v>
-      </c>
-      <c r="J76" t="s">
-        <v>411</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
-      <c r="AG76" s="1"/>
+      <c r="AG76" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
-      <c r="AK76" s="1"/>
+      <c r="AK76" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
       <c r="AN76" s="1"/>
-      <c r="AO76" s="1"/>
+      <c r="AO76" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="AP76" s="1"/>
       <c r="AQ76" s="1"/>
       <c r="AR76" s="1"/>
-      <c r="AS76" s="1"/>
+      <c r="AS76" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="AT76" s="1"/>
       <c r="AU76" s="1"/>
       <c r="AV76" s="1"/>
-      <c r="AW76" s="1"/>
+      <c r="AW76" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="AX76" s="1"/>
       <c r="AY76" s="9">
         <v>24</v>
@@ -19681,7 +20304,9 @@
       </c>
       <c r="CF76" s="12"/>
       <c r="CG76" s="15"/>
-      <c r="CH76" s="15"/>
+      <c r="CH76" s="15">
+        <v>0</v>
+      </c>
       <c r="CI76" s="15"/>
       <c r="CJ76" s="15"/>
       <c r="CK76" s="15">
@@ -19698,114 +20323,135 @@
       <c r="CR76" s="15">
         <v>0</v>
       </c>
-      <c r="CS76" s="15"/>
+      <c r="CS76" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="CT76" s="15"/>
-      <c r="CU76" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV76" s="15"/>
-      <c r="CW76" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="CX76">
-        <f t="shared" si="35"/>
+      <c r="CU76" s="15"/>
+      <c r="CV76" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW76" s="15"/>
+      <c r="CX76" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CY76">
+        <f t="shared" si="37"/>
         <v>1.2</v>
       </c>
-      <c r="CY76">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="CZ76">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DA76">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DB76" s="20"/>
+      <c r="DC76" s="22"/>
     </row>
-    <row r="77" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C77" t="s">
+        <v>386</v>
+      </c>
+      <c r="D77" t="s">
         <v>387</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>388</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>389</v>
       </c>
-      <c r="F77" t="s">
-        <v>390</v>
-      </c>
       <c r="G77" t="s">
+        <v>411</v>
+      </c>
+      <c r="H77" t="s">
         <v>412</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>413</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>414</v>
-      </c>
-      <c r="J77" t="s">
-        <v>415</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
+      <c r="AG77" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
-      <c r="AK77" s="1"/>
+      <c r="AK77" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
-      <c r="AO77" s="1"/>
+      <c r="AO77" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="AP77" s="1"/>
       <c r="AQ77" s="1"/>
       <c r="AR77" s="1"/>
-      <c r="AS77" s="1"/>
+      <c r="AS77" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="AT77" s="1"/>
       <c r="AU77" s="1"/>
       <c r="AV77" s="1"/>
-      <c r="AW77" s="1"/>
+      <c r="AW77" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="AX77" s="1"/>
       <c r="AY77" s="9">
         <v>25</v>
@@ -19866,7 +20512,9 @@
       </c>
       <c r="CF77" s="12"/>
       <c r="CG77" s="15"/>
-      <c r="CH77" s="15"/>
+      <c r="CH77" s="15">
+        <v>0</v>
+      </c>
       <c r="CI77" s="15"/>
       <c r="CJ77" s="15"/>
       <c r="CK77" s="15">
@@ -19883,114 +20531,135 @@
       <c r="CR77" s="15">
         <v>0</v>
       </c>
-      <c r="CS77" s="15"/>
+      <c r="CS77" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="CT77" s="15"/>
-      <c r="CU77" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV77" s="15"/>
-      <c r="CW77" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="CX77">
-        <f t="shared" si="35"/>
+      <c r="CU77" s="15"/>
+      <c r="CV77" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW77" s="15"/>
+      <c r="CX77" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CY77">
+        <f t="shared" si="37"/>
         <v>1.2</v>
       </c>
-      <c r="CY77">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="CZ77">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DA77">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="DB77" s="20"/>
+      <c r="DC77" s="22"/>
     </row>
-    <row r="78" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C78" t="s">
+        <v>416</v>
+      </c>
+      <c r="D78" t="s">
         <v>417</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>418</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>419</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>420</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
+        <v>419</v>
+      </c>
+      <c r="I78" t="s">
         <v>421</v>
       </c>
-      <c r="H78" t="s">
-        <v>420</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>422</v>
-      </c>
-      <c r="J78" t="s">
-        <v>423</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V78" s="1"/>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
+      <c r="AG78" s="1">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
-      <c r="AK78" s="1"/>
+      <c r="AK78" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
-      <c r="AO78" s="1"/>
+      <c r="AO78" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
       <c r="AP78" s="1"/>
       <c r="AQ78" s="1"/>
       <c r="AR78" s="1"/>
-      <c r="AS78" s="1"/>
+      <c r="AS78" s="1">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="AT78" s="1"/>
       <c r="AU78" s="1"/>
       <c r="AV78" s="1"/>
-      <c r="AW78" s="1"/>
+      <c r="AW78" s="1">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="AX78" s="1"/>
       <c r="AY78" s="8"/>
       <c r="AZ78" s="8">
@@ -20054,7 +20723,9 @@
       </c>
       <c r="CF78" s="12"/>
       <c r="CG78" s="15"/>
-      <c r="CH78" s="15"/>
+      <c r="CH78" s="15">
+        <v>0</v>
+      </c>
       <c r="CI78" s="15"/>
       <c r="CJ78" s="15">
         <v>16</v>
@@ -20063,7 +20734,7 @@
         <v>3</v>
       </c>
       <c r="CL78" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CM78" s="15"/>
       <c r="CN78" s="15"/>
@@ -20075,282 +20746,182 @@
       <c r="CR78" s="15">
         <v>0</v>
       </c>
-      <c r="CS78" s="15"/>
+      <c r="CS78" s="15">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="CT78" s="15"/>
-      <c r="CU78" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV78" s="15"/>
-      <c r="CW78" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="CX78">
-        <f t="shared" si="35"/>
+      <c r="CU78" s="15"/>
+      <c r="CV78" s="15">
+        <v>0</v>
+      </c>
+      <c r="CW78" s="15"/>
+      <c r="CX78" s="7">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="CY78">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CZ78">
+        <f t="shared" si="38"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="CZ78">
-        <f t="shared" si="37"/>
-        <v>0.66666666666666674</v>
-      </c>
+      <c r="DA78">
+        <f t="shared" si="39"/>
+        <v>0.6</v>
+      </c>
+      <c r="DB78" s="20"/>
+      <c r="DC78" s="22"/>
     </row>
-    <row r="79" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1"/>
-      <c r="AP79" s="1"/>
-      <c r="AQ79" s="1"/>
-      <c r="AR79" s="1"/>
-      <c r="AS79" s="1"/>
-      <c r="AT79" s="1"/>
-      <c r="AU79" s="1"/>
-      <c r="AV79" s="1"/>
-      <c r="AW79" s="1"/>
-      <c r="AX79" s="1"/>
-      <c r="AY79" s="8"/>
-      <c r="AZ79" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA79" s="8"/>
-      <c r="BB79" s="8"/>
-      <c r="BC79" s="8">
-        <v>0</v>
-      </c>
-      <c r="BD79" s="8"/>
-      <c r="BE79" s="8"/>
-      <c r="BF79" s="8">
-        <v>0</v>
-      </c>
-      <c r="BG79" s="8"/>
-      <c r="BH79" s="8"/>
-      <c r="BI79" s="8">
-        <v>0</v>
-      </c>
-      <c r="BJ79" s="8"/>
-      <c r="BK79" s="8"/>
-      <c r="BL79" s="8">
-        <v>0</v>
-      </c>
-      <c r="BM79" s="8"/>
-      <c r="BN79" s="12"/>
-      <c r="BO79" s="12"/>
-      <c r="BP79" s="12">
-        <v>0</v>
-      </c>
-      <c r="BQ79" s="12"/>
-      <c r="BR79" s="12"/>
-      <c r="BS79" s="12"/>
-      <c r="BT79" s="12">
-        <v>0</v>
-      </c>
-      <c r="BU79" s="12"/>
-      <c r="BV79" s="12"/>
-      <c r="BW79" s="12"/>
-      <c r="BX79" s="12">
-        <v>0</v>
-      </c>
-      <c r="BY79" s="12"/>
-      <c r="BZ79" s="12"/>
-      <c r="CA79" s="12">
-        <v>0</v>
-      </c>
-      <c r="CB79" s="12"/>
-      <c r="CC79" s="12"/>
-      <c r="CD79" s="12"/>
-      <c r="CE79" s="12">
-        <v>0</v>
-      </c>
-      <c r="CF79" s="12"/>
-      <c r="CG79" s="15"/>
-      <c r="CH79" s="15"/>
-      <c r="CI79" s="15"/>
-      <c r="CJ79" s="15"/>
-      <c r="CK79" s="15">
-        <v>0</v>
-      </c>
-      <c r="CL79" s="15"/>
-      <c r="CM79" s="15"/>
-      <c r="CN79" s="15"/>
-      <c r="CO79" s="15">
-        <v>0</v>
-      </c>
-      <c r="CP79" s="15"/>
-      <c r="CQ79" s="15"/>
-      <c r="CR79" s="15">
-        <v>0</v>
-      </c>
-      <c r="CS79" s="15"/>
-      <c r="CT79" s="15"/>
-      <c r="CU79" s="15">
-        <v>0</v>
-      </c>
-      <c r="CV79" s="15"/>
-      <c r="CW79" s="7"/>
+    <row r="79" spans="1:107" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AY79" s="11"/>
+      <c r="AZ79" s="11"/>
+      <c r="BA79" s="11"/>
+      <c r="BB79" s="11"/>
+      <c r="BC79" s="11"/>
+      <c r="BD79" s="11"/>
+      <c r="BE79" s="11"/>
+      <c r="BF79" s="11"/>
+      <c r="BG79" s="11"/>
+      <c r="BH79" s="11"/>
+      <c r="BI79" s="11"/>
+      <c r="BJ79" s="11"/>
+      <c r="BK79" s="11"/>
+      <c r="BL79" s="11"/>
+      <c r="BM79" s="11"/>
+      <c r="BN79" s="14"/>
+      <c r="BO79" s="14"/>
+      <c r="BP79" s="14"/>
+      <c r="BQ79" s="14"/>
+      <c r="BR79" s="14"/>
+      <c r="BS79" s="14"/>
+      <c r="BT79" s="14"/>
+      <c r="BU79" s="14"/>
+      <c r="BV79" s="14"/>
+      <c r="BW79" s="14"/>
+      <c r="BX79" s="14"/>
+      <c r="BY79" s="14"/>
+      <c r="BZ79" s="14"/>
+      <c r="CA79" s="14"/>
+      <c r="CB79" s="14"/>
+      <c r="CC79" s="14"/>
+      <c r="CD79" s="14"/>
+      <c r="CE79" s="14"/>
+      <c r="CF79" s="14"/>
+      <c r="CG79" s="17"/>
+      <c r="CH79" s="17">
+        <v>0</v>
+      </c>
+      <c r="CI79" s="17"/>
+      <c r="CJ79" s="17"/>
+      <c r="CK79" s="17"/>
+      <c r="CL79" s="17"/>
+      <c r="CM79" s="17"/>
+      <c r="CN79" s="17"/>
+      <c r="CO79" s="17"/>
+      <c r="CP79" s="17"/>
+      <c r="CQ79" s="17"/>
+      <c r="CR79" s="17"/>
+      <c r="CS79" s="17"/>
+      <c r="CT79" s="17"/>
+      <c r="CU79" s="17"/>
+      <c r="CV79" s="17"/>
+      <c r="CW79" s="17"/>
+      <c r="CX79" s="18"/>
+      <c r="CY79" s="18"/>
+      <c r="CZ79" s="18"/>
+      <c r="DA79" s="18"/>
+      <c r="DB79" s="23"/>
+      <c r="DC79" s="22"/>
     </row>
-    <row r="80" spans="1:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AY80" s="11"/>
-      <c r="AZ80" s="11"/>
-      <c r="BA80" s="11"/>
-      <c r="BB80" s="11"/>
-      <c r="BC80" s="11"/>
-      <c r="BD80" s="11"/>
-      <c r="BE80" s="11"/>
-      <c r="BF80" s="11"/>
-      <c r="BG80" s="11"/>
-      <c r="BH80" s="11"/>
-      <c r="BI80" s="11"/>
-      <c r="BJ80" s="11"/>
-      <c r="BK80" s="11"/>
-      <c r="BL80" s="11"/>
-      <c r="BM80" s="11"/>
-      <c r="BN80" s="14"/>
-      <c r="BO80" s="14"/>
-      <c r="BP80" s="14"/>
-      <c r="BQ80" s="14"/>
-      <c r="BR80" s="14"/>
-      <c r="BS80" s="14"/>
-      <c r="BT80" s="14"/>
-      <c r="BU80" s="14"/>
-      <c r="BV80" s="14"/>
-      <c r="BW80" s="14"/>
-      <c r="BX80" s="14"/>
-      <c r="BY80" s="14"/>
-      <c r="BZ80" s="14"/>
-      <c r="CA80" s="14"/>
-      <c r="CB80" s="14"/>
-      <c r="CC80" s="14"/>
-      <c r="CD80" s="14"/>
-      <c r="CE80" s="14"/>
-      <c r="CF80" s="14"/>
-      <c r="CG80" s="17"/>
-      <c r="CH80" s="17"/>
-      <c r="CI80" s="17"/>
-      <c r="CJ80" s="17"/>
-      <c r="CK80" s="17"/>
-      <c r="CL80" s="17"/>
-      <c r="CM80" s="17"/>
-      <c r="CN80" s="17"/>
-      <c r="CO80" s="17"/>
-      <c r="CP80" s="17"/>
-      <c r="CQ80" s="17"/>
-      <c r="CR80" s="17"/>
-      <c r="CS80" s="17"/>
-      <c r="CT80" s="17"/>
-      <c r="CU80" s="17"/>
-      <c r="CV80" s="17"/>
-      <c r="CW80" s="18"/>
-      <c r="CX80" s="18"/>
-      <c r="CY80" s="18"/>
-      <c r="CZ80" s="18"/>
-    </row>
-    <row r="81" spans="10:101" x14ac:dyDescent="0.2">
-      <c r="J81" s="18"/>
-      <c r="AY81"/>
-      <c r="AZ81"/>
-      <c r="BA81"/>
-      <c r="BB81"/>
-      <c r="BC81"/>
-      <c r="BD81"/>
-      <c r="BE81"/>
-      <c r="BF81"/>
-      <c r="BG81"/>
-      <c r="BH81"/>
-      <c r="BI81"/>
-      <c r="BJ81"/>
-      <c r="BK81"/>
-      <c r="BL81"/>
-      <c r="BM81"/>
-      <c r="BN81"/>
-      <c r="BO81"/>
-      <c r="BP81"/>
-      <c r="BQ81"/>
-      <c r="BR81"/>
-      <c r="BS81"/>
-      <c r="BT81"/>
-      <c r="BU81"/>
-      <c r="BV81"/>
-      <c r="BW81"/>
-      <c r="BX81"/>
-      <c r="BY81"/>
-      <c r="BZ81"/>
-      <c r="CA81"/>
-      <c r="CB81"/>
-      <c r="CC81"/>
-      <c r="CD81"/>
-      <c r="CE81"/>
-      <c r="CF81"/>
-      <c r="CG81"/>
-      <c r="CH81"/>
-      <c r="CI81"/>
-      <c r="CJ81"/>
-      <c r="CK81"/>
-      <c r="CL81"/>
-      <c r="CM81"/>
-      <c r="CN81"/>
-      <c r="CO81"/>
-      <c r="CP81"/>
-      <c r="CQ81"/>
-      <c r="CR81"/>
-      <c r="CS81"/>
-      <c r="CT81"/>
-      <c r="CU81"/>
-      <c r="CV81"/>
-      <c r="CW81"/>
+    <row r="80" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="J80" s="18"/>
+      <c r="AY80"/>
+      <c r="AZ80"/>
+      <c r="BA80"/>
+      <c r="BB80"/>
+      <c r="BC80"/>
+      <c r="BD80"/>
+      <c r="BE80"/>
+      <c r="BF80"/>
+      <c r="BG80"/>
+      <c r="BH80"/>
+      <c r="BI80"/>
+      <c r="BJ80"/>
+      <c r="BK80"/>
+      <c r="BL80"/>
+      <c r="BM80"/>
+      <c r="BN80"/>
+      <c r="BO80"/>
+      <c r="BP80"/>
+      <c r="BQ80"/>
+      <c r="BR80"/>
+      <c r="BS80"/>
+      <c r="BT80"/>
+      <c r="BU80"/>
+      <c r="BV80"/>
+      <c r="BW80"/>
+      <c r="BX80"/>
+      <c r="BY80"/>
+      <c r="BZ80"/>
+      <c r="CA80"/>
+      <c r="CB80"/>
+      <c r="CC80"/>
+      <c r="CD80"/>
+      <c r="CE80"/>
+      <c r="CF80"/>
+      <c r="CG80"/>
+      <c r="CH80">
+        <v>0</v>
+      </c>
+      <c r="CI80"/>
+      <c r="CJ80"/>
+      <c r="CK80"/>
+      <c r="CL80"/>
+      <c r="CM80"/>
+      <c r="CN80"/>
+      <c r="CO80"/>
+      <c r="CP80"/>
+      <c r="CQ80"/>
+      <c r="CR80"/>
+      <c r="CS80"/>
+      <c r="CT80"/>
+      <c r="CU80"/>
+      <c r="CV80"/>
+      <c r="CW80"/>
+      <c r="CX80"/>
+      <c r="CY80">
+        <f>SUM(CY3:CY79)</f>
+        <v>100.00000000000003</v>
+      </c>
+      <c r="CZ80">
+        <f>SUM(CZ3:CZ79)</f>
+        <v>99.999999999999972</v>
+      </c>
+      <c r="DA80">
+        <f>SUM(DA3:DA79)</f>
+        <v>100.00000000000003</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="CW1:CW2"/>
+  <mergeCells count="41">
+    <mergeCell ref="BV1:BY1"/>
+    <mergeCell ref="CQ1:CT1"/>
+    <mergeCell ref="DB1:DB2"/>
+    <mergeCell ref="DC1:DC2"/>
     <mergeCell ref="CX1:CX2"/>
     <mergeCell ref="CY1:CY2"/>
     <mergeCell ref="CZ1:CZ2"/>
+    <mergeCell ref="DA1:DA2"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="CC1:CF1"/>
     <mergeCell ref="CG1:CI1"/>
     <mergeCell ref="CJ1:CL1"/>
     <mergeCell ref="CM1:CP1"/>
-    <mergeCell ref="CQ1:CS1"/>
-    <mergeCell ref="CT1:CV1"/>
+    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
@@ -20361,18 +20932,6 @@
     <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="BN1:BQ1"/>
     <mergeCell ref="BR1:BU1"/>
-    <mergeCell ref="BV1:BY1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A1:A2"/>
@@ -20380,10 +20939,19 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="CW1:CW1048576 CX80:CZ80">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="CY79:DB79 CY80:DA80 CX1:CX1048576">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20396,8 +20964,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CZ1:CZ79 CZ81:CZ1048576">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="DA81:DB1048576 DA1:DC2 DB80 DA3:DB78">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20410,8 +20978,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CX3:CX78">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="CY3:CY78">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20424,8 +20992,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CY3:CY78">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="CZ3:CZ78">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20438,7 +21006,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="CX3:CX78">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9BF30688-C083-4A2B-A871-2C0B7D7433DC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -20453,7 +21036,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>CW1:CW1048576 CX80:CZ80</xm:sqref>
+          <xm:sqref>CY79:DB79 CY80:DA80 CX1:CX1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{26350A0F-AA8D-4FB8-8D57-2D31136D154C}">
@@ -20466,7 +21049,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>CZ1:CZ79 CZ81:CZ1048576</xm:sqref>
+          <xm:sqref>DA81:DB1048576 DA1:DC2 DB80 DA3:DB78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D72F9B12-774E-4AD2-9EF8-969C546E6031}">
@@ -20479,7 +21062,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>CX3:CX78</xm:sqref>
+          <xm:sqref>CY3:CY78</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FB26A30D-80B6-4305-A4ED-A6B1863BC2BF}">
@@ -20492,7 +21075,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>CY3:CY78</xm:sqref>
+          <xm:sqref>CZ3:CZ78</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9BF30688-C083-4A2B-A871-2C0B7D7433DC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>CX3:CX78</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
